--- a/database/industries/darou/derazak/cost/quarterly.xlsx
+++ b/database/industries/darou/derazak/cost/quarterly.xlsx
@@ -1,1270 +1,306 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\derazak\cost\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26045BE9-4143-48BC-B64C-C6F8CFBA4C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="82">
   <si>
-    <t xml:space="preserve">Pouya Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright @2015 - 2023</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">درازک</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri Light"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دارویی‌ رازک‌</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">بهای تمام شده</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل دوم منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1399/06</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل سوم منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1399/09</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل چهارم منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1399/12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل اول منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1400/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل دوم منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1400/06</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل سوم منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1400/09</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل چهارم منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1400/12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل اول منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل دوم منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/06</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">فصل سوم منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/09</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">مواد مستقیم مصرفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دستمزد مستقیم تولید</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سربار تولید</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جمع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هزینه جذب نشده در تولید</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جمع هزینه های تولید</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خالص موجودی کالای درجریان ساخت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ضایعات غیرعادی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بهای تمام شده کالای تولید شده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">موجودی کالای ساخته شده اول دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">موجودی کالای ساخته شده پایان دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مواد مؤثره انسانی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کیلوگرم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مواد بسته بندی دامی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مواد بسته بندی انسانی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مواد اولیه دامی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مواد مؤثره دامی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مواد اولیه انسانی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مقدار خرید طی دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مقدار مصرف طی دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مقدار موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مبلغ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">میلیون ریال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مبلغ خرید طی دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مبلغ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مبلغ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نرخ موجودی اول دوره</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">کیلوگرم </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ریال</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">نرخ خرید طی دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نرخ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نرخ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هزینه سربار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هزینه حمل و نقل و انتقال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هزینه خدمات پس از فروش</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حق العمل و کمیسیون فروش</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هزینه تبلیغات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هزینه مواد مصرفی</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">هزینه انرژی </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">آب، برق، گاز و سوخت</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">هزینه استهلاک</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هزینه حقوق و دستمزد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هزینه مطالبات مشکوک الوصول</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سایر هزینه ها</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برآورد شرکت </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1398/12/29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">با توجه به افزایش سطح عمومی قیمتها </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">حقوق و دستمزد و مواد اولیه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">افزایش بهای تمام شده نیز به طبع قیمتها متصور است </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1397/12/29</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">بهای تمام شده نسبت به درآمد در نه ماهه چهل و یک درصد می باشد که با توجه به افزایش دستمزد و مواد اولیه و نرخ ارز در سال مالی نشاندهنده مدیریت مناسب می باشد</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1398/03/31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">با افزایش نرخ ارز و حقوق و دستمزد و سایر عوامل موثر در بهای تمام شده پیش بینی می شود بهای تمام شده نیز به تبع آن افزایش یابد </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1397/12/29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">بهای تمام شده به درآمد عملیاتی در شش ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">97/06/31 - 0.46</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">می باشد که با توجه به رشد دستمزد مستقیم و خرید مواد اولیه و نرخ ارز در سال مالی نشاندهنده مدیریت مناسب بهای تمام شده توسط عوامل شرکت می باشد </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1399/12/30</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">با توجه به افزایش در قیمت مواد اولیه و هزینه های سربار ناشی از تورم احتمال تغییر در بهای تمام شده را متصوریم</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">بهای تمام شده در آمدهای عملیاتی شرکت در مقایسه با مدت مشابه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">درصد کاهش داشته است و پیش بینی می گردد این نسبت در </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه آتی سال نیز ادامه داشته باشد </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1398/12/29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">با توجه به افزایش سطح عمومی قیمتها </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">حقوق و دستمزد و مواد اولیه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">افزایش بهای تمام شده نیز به تبع قیمتها قابل تصور است</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1398/12/29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">با توجه به افزایش حقوق و دستمزد طبق مصوبه دولت نسبت به سال قبل </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">درصد افزایش در هزینه های پرسنلی برآورد می شود </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1399/12/30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1400/12/29</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">جه به افزایش در قیمت مواد اولیه و هزینه های سربار ناشی از تورم احتمال تغییر در بهای تمام شده را متصوریم</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">دوره </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماهه منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1399/12/30</t>
-    </r>
+    <t>Pouya Finance</t>
+  </si>
+  <si>
+    <t>Copyright @2015 - 2023</t>
+  </si>
+  <si>
+    <t>درازک-دارویی‌ رازک‌</t>
+  </si>
+  <si>
+    <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>مواد مستقیم مصرفی</t>
+  </si>
+  <si>
+    <t>دستمزد مستقیم تولید</t>
+  </si>
+  <si>
+    <t>سربار تولید</t>
+  </si>
+  <si>
+    <t>جمع</t>
+  </si>
+  <si>
+    <t>هزینه جذب نشده در تولید</t>
+  </si>
+  <si>
+    <t>جمع هزینه های تولید</t>
+  </si>
+  <si>
+    <t>خالص موجودی کالای درجریان ساخت</t>
+  </si>
+  <si>
+    <t>ضایعات غیرعادی</t>
+  </si>
+  <si>
+    <t>بهای تمام شده کالای تولید شده</t>
+  </si>
+  <si>
+    <t>موجودی کالای ساخته شده اول دوره</t>
+  </si>
+  <si>
+    <t>موجودی کالای ساخته شده پایان دوره</t>
+  </si>
+  <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مواد مؤثره انسانی</t>
+  </si>
+  <si>
+    <t>کیلوگرم</t>
+  </si>
+  <si>
+    <t>مواد بسته بندی دامی</t>
+  </si>
+  <si>
+    <t>مواد بسته بندی انسانی</t>
+  </si>
+  <si>
+    <t>مواد اولیه دامی</t>
+  </si>
+  <si>
+    <t>مواد مؤثره دامی</t>
+  </si>
+  <si>
+    <t>مواد اولیه انسانی</t>
+  </si>
+  <si>
+    <t>مقدار خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>کیلوگرم / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>هزینه سربار</t>
+  </si>
+  <si>
+    <t>هزینه حمل و نقل و انتقال</t>
+  </si>
+  <si>
+    <t>هزینه خدمات پس از فروش</t>
+  </si>
+  <si>
+    <t>حق العمل و کمیسیون فروش</t>
+  </si>
+  <si>
+    <t>هزینه تبلیغات</t>
+  </si>
+  <si>
+    <t>هزینه مواد مصرفی</t>
+  </si>
+  <si>
+    <t>هزینه انرژی (آب، برق، گاز و سوخت)</t>
+  </si>
+  <si>
+    <t>هزینه استهلاک</t>
+  </si>
+  <si>
+    <t>هزینه حقوق و دستمزد</t>
+  </si>
+  <si>
+    <t>هزینه مطالبات مشکوک الوصول</t>
+  </si>
+  <si>
+    <t>سایر هزینه ها</t>
+  </si>
+  <si>
+    <t>برآورد شرکت</t>
+  </si>
+  <si>
+    <t>دوره 6 ماهه منتهی به 1398/12/29</t>
+  </si>
+  <si>
+    <t>با توجه به افزایش سطح عمومی قیمتها (حقوق و دستمزد و مواد اولیه ) افزایش بهای تمام شده نیز به طبع قیمتها متصور است .</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به 1397/12/29</t>
+  </si>
+  <si>
+    <t>بهای تمام شده نسبت به درآمد در نه ماهه چهل و یک درصد می باشد که با توجه به افزایش دستمزد و مواد اولیه و نرخ ارز در سال مالی نشاندهنده مدیریت مناسب می باشد</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به 1398/03/31</t>
+  </si>
+  <si>
+    <t>با افزایش نرخ ارز و حقوق و دستمزد و سایر عوامل موثر در بهای تمام شده پیش بینی می شود بهای تمام شده نیز به تبع آن افزایش یابد .</t>
+  </si>
+  <si>
+    <t>دوره 6 ماهه منتهی به 1397/12/29</t>
+  </si>
+  <si>
+    <t>بهای تمام شده به درآمد عملیاتی در شش ماهه منتهی به 97/06/31 - 0.46می باشد که با توجه به رشد دستمزد مستقیم و خرید مواد اولیه و نرخ ارز در سال مالی نشاندهنده مدیریت مناسب بهای تمام شده توسط عوامل شرکت می باشد .</t>
+  </si>
+  <si>
+    <t>دوره 6 ماهه منتهی به 1399/12/30</t>
+  </si>
+  <si>
+    <t>با توجه به افزایش در قیمت مواد اولیه و هزینه های سربار ناشی از تورم احتمال تغییر در بهای تمام شده را متصوریم</t>
+  </si>
+  <si>
+    <t>بهای تمام شده در آمدهای عملیاتی شرکت در مقایسه با مدت مشابه 4 درصد کاهش داشته است و پیش بینی می گردد این نسبت در 6 ماهه آتی سال نیز ادامه داشته باشد .</t>
+  </si>
+  <si>
+    <t>دوره 9 ماهه منتهی به 1398/12/29</t>
+  </si>
+  <si>
+    <t>با توجه به افزایش سطح عمومی قیمتها ( حقوق و دستمزد و مواد اولیه ) افزایش بهای تمام شده نیز به تبع قیمتها قابل تصور است</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به 1398/12/29</t>
+  </si>
+  <si>
+    <t>با توجه به افزایش حقوق و دستمزد طبق مصوبه دولت نسبت به سال قبل 30درصد افزایش در هزینه های پرسنلی برآورد می شود .</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به</t>
+  </si>
+  <si>
+    <t>دوره 9 ماهه منتهی به 1399/12/30</t>
+  </si>
+  <si>
+    <t>دوره 9 ماهه منتهی به 1400/12/29</t>
+  </si>
+  <si>
+    <t>جه به افزایش در قیمت مواد اولیه و هزینه های سربار ناشی از تورم احتمال تغییر در بهای تمام شده را متصوریم</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به 1399/12/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="32"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="32"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Light"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
+      <name val="Calibri Bold"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
+      <name val="Calibri Bold"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1277,31 +313,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFECECEC"/>
-        <bgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A9E8"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
-        <bgColor rgb="FFECECEC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="4">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1310,205 +346,391 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF5F5F5"/>
-      <rgbColor rgb="FFECECEC"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00A9E8"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="20"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1523,7 +745,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +762,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1557,7 +779,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1572,7 +794,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +811,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +828,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1621,44 +843,44 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1673,525 +895,525 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="n">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>657169</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="9">
         <v>763068</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="9">
         <v>807587</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="9">
         <v>835400</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="9">
         <v>1539395</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="9">
         <v>1195368</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="9">
         <v>1122254</v>
       </c>
-      <c r="L10" s="10" t="n">
+      <c r="L10" s="9">
         <v>1063302</v>
       </c>
-      <c r="M10" s="10" t="n">
+      <c r="M10" s="9">
         <v>1529255</v>
       </c>
-      <c r="N10" s="10" t="n">
+      <c r="N10" s="9">
         <v>1830568</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="n">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
         <v>65690</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="11">
         <v>90337</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="11">
         <v>33733</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="11">
         <v>97608</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="11">
         <v>49752</v>
       </c>
-      <c r="J11" s="12" t="n">
+      <c r="J11" s="11">
         <v>56808</v>
       </c>
-      <c r="K11" s="12" t="n">
+      <c r="K11" s="11">
         <v>157950</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="11">
         <v>255115</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="11">
         <v>-77344</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="11">
         <v>76304</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="n">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
         <v>223722</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="9">
         <v>299128</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="9">
         <v>138138</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="9">
         <v>225300</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="9">
         <v>385054</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="9">
         <v>296892</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="9">
         <v>270313</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="L12" s="9">
         <v>131133</v>
       </c>
-      <c r="M12" s="10" t="n">
+      <c r="M12" s="9">
         <v>754329</v>
       </c>
-      <c r="N12" s="10" t="n">
+      <c r="N12" s="9">
         <v>447835</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="n">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
         <v>946581</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="13">
         <v>1152533</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G13" s="13">
         <v>979458</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="13">
         <v>1158308</v>
       </c>
-      <c r="I13" s="14" t="n">
+      <c r="I13" s="13">
         <v>1974201</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J13" s="13">
         <v>1549068</v>
       </c>
-      <c r="K13" s="14" t="n">
+      <c r="K13" s="13">
         <v>1550517</v>
       </c>
-      <c r="L13" s="14" t="n">
+      <c r="L13" s="13">
         <v>1449550</v>
       </c>
-      <c r="M13" s="14" t="n">
+      <c r="M13" s="13">
         <v>2206240</v>
       </c>
-      <c r="N13" s="14" t="n">
+      <c r="N13" s="13">
         <v>2354707</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="n">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
         <v>946581</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="13">
         <v>1152533</v>
       </c>
-      <c r="G15" s="14" t="n">
+      <c r="G15" s="13">
         <v>979458</v>
       </c>
-      <c r="H15" s="14" t="n">
+      <c r="H15" s="13">
         <v>1158308</v>
       </c>
-      <c r="I15" s="14" t="n">
+      <c r="I15" s="13">
         <v>1974201</v>
       </c>
-      <c r="J15" s="14" t="n">
+      <c r="J15" s="13">
         <v>1549068</v>
       </c>
-      <c r="K15" s="14" t="n">
+      <c r="K15" s="13">
         <v>1550517</v>
       </c>
-      <c r="L15" s="14" t="n">
+      <c r="L15" s="13">
         <v>1449550</v>
       </c>
-      <c r="M15" s="14" t="n">
+      <c r="M15" s="13">
         <v>2206240</v>
       </c>
-      <c r="N15" s="14" t="n">
+      <c r="N15" s="13">
         <v>2354707</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="n">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>-35419</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="9">
         <v>15088</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="9">
         <v>-151930</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="9">
         <v>209911</v>
       </c>
-      <c r="I16" s="10" t="n">
+      <c r="I16" s="9">
         <v>-264000</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="9">
         <v>-65859</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="9">
         <v>174742</v>
       </c>
-      <c r="L16" s="10" t="n">
+      <c r="L16" s="9">
         <v>-69283</v>
       </c>
-      <c r="M16" s="10" t="n">
+      <c r="M16" s="9">
         <v>40500</v>
       </c>
-      <c r="N16" s="10" t="n">
+      <c r="N16" s="9">
         <v>-178891</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="n">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
         <v>-289</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="11">
         <v>289</v>
       </c>
-      <c r="G17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12" t="n">
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
         <v>-20009</v>
       </c>
-      <c r="J17" s="12" t="n">
+      <c r="J17" s="11">
         <v>20009</v>
       </c>
-      <c r="K17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15" t="s">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="n">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
         <v>910873</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="15">
         <v>1167910</v>
       </c>
-      <c r="G18" s="16" t="n">
+      <c r="G18" s="15">
         <v>827528</v>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="15">
         <v>1368219</v>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="I18" s="15">
         <v>1690192</v>
       </c>
-      <c r="J18" s="16" t="n">
+      <c r="J18" s="15">
         <v>1503218</v>
       </c>
-      <c r="K18" s="16" t="n">
+      <c r="K18" s="15">
         <v>1725259</v>
       </c>
-      <c r="L18" s="16" t="n">
+      <c r="L18" s="15">
         <v>1380267</v>
       </c>
-      <c r="M18" s="16" t="n">
+      <c r="M18" s="15">
         <v>2246740</v>
       </c>
-      <c r="N18" s="16" t="n">
+      <c r="N18" s="15">
         <v>2175816</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12" t="n">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
         <v>202368</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="11">
         <v>107349</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" s="11">
         <v>1154208</v>
       </c>
-      <c r="J19" s="12" t="n">
+      <c r="J19" s="11">
         <v>449348</v>
       </c>
-      <c r="K19" s="12" t="n">
+      <c r="K19" s="11">
         <v>428239</v>
       </c>
-      <c r="L19" s="12" t="n">
+      <c r="L19" s="11">
         <v>211160</v>
       </c>
-      <c r="M19" s="12" t="n">
+      <c r="M19" s="11">
         <v>211573</v>
       </c>
-      <c r="N19" s="12" t="n">
+      <c r="N19" s="11">
         <v>306624</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="n">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <v>-42019</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="9">
         <v>-97731</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="G20" s="9">
         <v>-107349</v>
       </c>
-      <c r="H20" s="10" t="n">
+      <c r="H20" s="9">
         <v>-1154208</v>
       </c>
-      <c r="I20" s="10" t="n">
+      <c r="I20" s="9">
         <v>-449348</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="9">
         <v>-428239</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="9">
         <v>-211160</v>
       </c>
-      <c r="L20" s="10" t="n">
+      <c r="L20" s="9">
         <v>-211573</v>
       </c>
-      <c r="M20" s="10" t="n">
+      <c r="M20" s="9">
         <v>-306624</v>
       </c>
-      <c r="N20" s="10" t="n">
+      <c r="N20" s="9">
         <v>-181844</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="n">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13">
         <v>868854</v>
       </c>
-      <c r="F21" s="14" t="n">
+      <c r="F21" s="13">
         <v>1070179</v>
       </c>
-      <c r="G21" s="14" t="n">
+      <c r="G21" s="13">
         <v>922547</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="13">
         <v>321360</v>
       </c>
-      <c r="I21" s="14" t="n">
+      <c r="I21" s="13">
         <v>2395052</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="13">
         <v>1524327</v>
       </c>
-      <c r="K21" s="14" t="n">
+      <c r="K21" s="13">
         <v>1942338</v>
       </c>
-      <c r="L21" s="14" t="n">
+      <c r="L21" s="13">
         <v>1379854</v>
       </c>
-      <c r="M21" s="14" t="n">
+      <c r="M21" s="13">
         <v>2151689</v>
       </c>
-      <c r="N21" s="14" t="n">
+      <c r="N21" s="13">
         <v>2300596</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="n">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
         <v>32935</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="9">
         <v>-32935</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="9">
         <v>29410</v>
       </c>
-      <c r="H22" s="10" t="n">
+      <c r="H22" s="9">
         <v>716916</v>
       </c>
-      <c r="I22" s="10" t="n">
+      <c r="I22" s="9">
         <v>-620304</v>
       </c>
-      <c r="J22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10" t="n">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
         <v>-5635</v>
       </c>
-      <c r="L22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10" t="n">
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
         <v>19092</v>
       </c>
-      <c r="N22" s="10" t="n">
+      <c r="N22" s="9">
         <v>-17826</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="n">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13">
         <v>901789</v>
       </c>
-      <c r="F23" s="14" t="n">
+      <c r="F23" s="13">
         <v>1037244</v>
       </c>
-      <c r="G23" s="14" t="n">
+      <c r="G23" s="13">
         <v>951957</v>
       </c>
-      <c r="H23" s="14" t="n">
+      <c r="H23" s="13">
         <v>1038276</v>
       </c>
-      <c r="I23" s="14" t="n">
+      <c r="I23" s="13">
         <v>1774748</v>
       </c>
-      <c r="J23" s="14" t="n">
+      <c r="J23" s="13">
         <v>1524327</v>
       </c>
-      <c r="K23" s="14" t="n">
+      <c r="K23" s="13">
         <v>1936703</v>
       </c>
-      <c r="L23" s="14" t="n">
+      <c r="L23" s="13">
         <v>1379854</v>
       </c>
-      <c r="M23" s="14" t="n">
+      <c r="M23" s="13">
         <v>2170781</v>
       </c>
-      <c r="N23" s="14" t="n">
+      <c r="N23" s="13">
         <v>2282770</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2206,7 +1428,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2221,7 +1443,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2236,44 +1458,44 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2288,278 +1510,278 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10" t="n">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9">
         <v>1313992</v>
       </c>
-      <c r="F29" s="10" t="n">
+      <c r="F29" s="9">
         <v>247276</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G29" s="9">
         <v>30223</v>
       </c>
-      <c r="H29" s="10" t="n">
+      <c r="H29" s="9">
         <v>64041</v>
       </c>
-      <c r="I29" s="10" t="n">
+      <c r="I29" s="9">
         <v>73485</v>
       </c>
-      <c r="J29" s="10" t="n">
+      <c r="J29" s="9">
         <v>167423</v>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="9">
         <v>122962</v>
       </c>
-      <c r="L29" s="10" t="n">
+      <c r="L29" s="9">
         <v>38317</v>
       </c>
-      <c r="M29" s="10" t="n">
+      <c r="M29" s="9">
         <v>6963433</v>
       </c>
-      <c r="N29" s="10" t="n">
+      <c r="N29" s="9">
         <v>165095</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="n">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11">
         <v>409584</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="F30" s="11">
         <v>120137</v>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="G30" s="11">
         <v>120992</v>
       </c>
-      <c r="H30" s="12" t="n">
+      <c r="H30" s="11">
         <v>215764</v>
       </c>
-      <c r="I30" s="12" t="n">
+      <c r="I30" s="11">
         <v>209067</v>
       </c>
-      <c r="J30" s="12" t="n">
+      <c r="J30" s="11">
         <v>3201973</v>
       </c>
-      <c r="K30" s="12" t="n">
+      <c r="K30" s="11">
         <v>27205</v>
       </c>
-      <c r="L30" s="12" t="n">
+      <c r="L30" s="11">
         <v>107045</v>
       </c>
-      <c r="M30" s="12" t="n">
+      <c r="M30" s="11">
         <v>1119189</v>
       </c>
-      <c r="N30" s="12" t="n">
+      <c r="N30" s="11">
         <v>47501</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="n">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
         <v>240795</v>
       </c>
-      <c r="F31" s="10" t="n">
+      <c r="F31" s="9">
         <v>213433</v>
       </c>
-      <c r="G31" s="10" t="n">
+      <c r="G31" s="9">
         <v>241173</v>
       </c>
-      <c r="H31" s="10" t="n">
+      <c r="H31" s="9">
         <v>428747</v>
       </c>
-      <c r="I31" s="10" t="n">
+      <c r="I31" s="9">
         <v>114516</v>
       </c>
-      <c r="J31" s="10" t="n">
+      <c r="J31" s="9">
         <v>600194</v>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="9">
         <v>295661</v>
       </c>
-      <c r="L31" s="10" t="n">
+      <c r="L31" s="9">
         <v>455416</v>
       </c>
-      <c r="M31" s="10" t="n">
+      <c r="M31" s="9">
         <v>1691095</v>
       </c>
-      <c r="N31" s="10" t="n">
+      <c r="N31" s="9">
         <v>356625</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="n">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11">
         <v>23993427</v>
       </c>
-      <c r="F32" s="12" t="n">
+      <c r="F32" s="11">
         <v>32584679</v>
       </c>
-      <c r="G32" s="12" t="n">
+      <c r="G32" s="11">
         <v>33792699</v>
       </c>
-      <c r="H32" s="12" t="n">
+      <c r="H32" s="11">
         <v>34039956</v>
       </c>
-      <c r="I32" s="12" t="n">
+      <c r="I32" s="11">
         <v>15756645</v>
       </c>
-      <c r="J32" s="12" t="n">
+      <c r="J32" s="11">
         <v>3359435</v>
       </c>
-      <c r="K32" s="12" t="n">
+      <c r="K32" s="11">
         <v>7833225</v>
       </c>
-      <c r="L32" s="12" t="n">
+      <c r="L32" s="11">
         <v>33882316</v>
       </c>
-      <c r="M32" s="12" t="n">
+      <c r="M32" s="11">
         <v>2673345</v>
       </c>
-      <c r="N32" s="12" t="n">
+      <c r="N32" s="11">
         <v>226739576</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="n">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
         <v>210880</v>
       </c>
-      <c r="F33" s="10" t="n">
+      <c r="F33" s="9">
         <v>106011</v>
       </c>
-      <c r="G33" s="10" t="n">
+      <c r="G33" s="9">
         <v>24450</v>
       </c>
-      <c r="H33" s="10" t="n">
+      <c r="H33" s="9">
         <v>16101</v>
       </c>
-      <c r="I33" s="10" t="n">
+      <c r="I33" s="9">
         <v>21142</v>
       </c>
-      <c r="J33" s="10" t="n">
+      <c r="J33" s="9">
         <v>2560373</v>
       </c>
-      <c r="K33" s="10" t="n">
+      <c r="K33" s="9">
         <v>23426</v>
       </c>
-      <c r="L33" s="10" t="n">
+      <c r="L33" s="9">
         <v>14840</v>
       </c>
-      <c r="M33" s="10" t="n">
+      <c r="M33" s="9">
         <v>53643037</v>
       </c>
-      <c r="N33" s="10" t="n">
+      <c r="N33" s="9">
         <v>53734</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="n">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11">
         <v>31409884</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="11">
         <v>7201105</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="11">
         <v>32323537</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="11">
         <v>19428981</v>
       </c>
-      <c r="I34" s="12" t="n">
+      <c r="I34" s="11">
         <v>8122796</v>
       </c>
-      <c r="J34" s="12" t="n">
+      <c r="J34" s="11">
         <v>3526283</v>
       </c>
-      <c r="K34" s="12" t="n">
+      <c r="K34" s="11">
         <v>8281974</v>
       </c>
-      <c r="L34" s="12" t="n">
+      <c r="L34" s="11">
         <v>18378232</v>
       </c>
-      <c r="M34" s="12" t="n">
+      <c r="M34" s="11">
         <v>4559236</v>
       </c>
-      <c r="N34" s="12" t="n">
+      <c r="N34" s="11">
         <v>61444807</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="15" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16" t="n">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15">
         <v>57578562</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15">
         <v>40472641</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15">
         <v>66533074</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="H35" s="15">
         <v>54193590</v>
       </c>
-      <c r="I35" s="16" t="n">
+      <c r="I35" s="15">
         <v>24297651</v>
       </c>
-      <c r="J35" s="16" t="n">
+      <c r="J35" s="15">
         <v>13415681</v>
       </c>
-      <c r="K35" s="16" t="n">
+      <c r="K35" s="15">
         <v>16584453</v>
       </c>
-      <c r="L35" s="16" t="n">
+      <c r="L35" s="15">
         <v>52876166</v>
       </c>
-      <c r="M35" s="16" t="n">
+      <c r="M35" s="15">
         <v>70649335</v>
       </c>
-      <c r="N35" s="16" t="n">
+      <c r="N35" s="15">
         <v>288807338</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2574,7 +1796,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2589,7 +1811,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2604,44 +1826,44 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="N39" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2656,278 +1878,278 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="n">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9">
         <v>-7025453</v>
       </c>
-      <c r="F41" s="10" t="n">
+      <c r="F41" s="9">
         <v>-65824</v>
       </c>
-      <c r="G41" s="10" t="n">
+      <c r="G41" s="9">
         <v>42189</v>
       </c>
-      <c r="H41" s="10" t="n">
+      <c r="H41" s="9">
         <v>180440</v>
       </c>
-      <c r="I41" s="10" t="n">
+      <c r="I41" s="9">
         <v>-39454</v>
       </c>
-      <c r="J41" s="10" t="n">
+      <c r="J41" s="9">
         <v>83880</v>
       </c>
-      <c r="K41" s="10" t="n">
+      <c r="K41" s="9">
         <v>87285</v>
       </c>
-      <c r="L41" s="10" t="n">
+      <c r="L41" s="9">
         <v>14634863</v>
       </c>
-      <c r="M41" s="10" t="n">
+      <c r="M41" s="9">
         <v>-14479963</v>
       </c>
-      <c r="N41" s="10" t="n">
+      <c r="N41" s="9">
         <v>16947</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="11" t="s">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12" t="n">
+      <c r="D42" s="11"/>
+      <c r="E42" s="11">
         <v>-418547</v>
       </c>
-      <c r="F42" s="12" t="n">
+      <c r="F42" s="11">
         <v>-26364</v>
       </c>
-      <c r="G42" s="12" t="n">
+      <c r="G42" s="11">
         <v>92591</v>
       </c>
-      <c r="H42" s="12" t="n">
+      <c r="H42" s="11">
         <v>290551</v>
       </c>
-      <c r="I42" s="12" t="n">
+      <c r="I42" s="11">
         <v>-261118</v>
       </c>
-      <c r="J42" s="12" t="n">
+      <c r="J42" s="11">
         <v>6468</v>
       </c>
-      <c r="K42" s="12" t="n">
+      <c r="K42" s="11">
         <v>209305</v>
       </c>
-      <c r="L42" s="12" t="n">
+      <c r="L42" s="11">
         <v>3331739</v>
       </c>
-      <c r="M42" s="12" t="n">
+      <c r="M42" s="11">
         <v>-3322535</v>
       </c>
-      <c r="N42" s="12" t="n">
+      <c r="N42" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="n">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9">
         <v>-131354</v>
       </c>
-      <c r="F43" s="10" t="n">
+      <c r="F43" s="9">
         <v>54168</v>
       </c>
-      <c r="G43" s="10" t="n">
+      <c r="G43" s="9">
         <v>134846</v>
       </c>
-      <c r="H43" s="10" t="n">
+      <c r="H43" s="9">
         <v>467771</v>
       </c>
-      <c r="I43" s="10" t="n">
+      <c r="I43" s="9">
         <v>-233911</v>
       </c>
-      <c r="J43" s="10" t="n">
+      <c r="J43" s="9">
         <v>196691</v>
       </c>
-      <c r="K43" s="10" t="n">
+      <c r="K43" s="9">
         <v>-62741</v>
       </c>
-      <c r="L43" s="10" t="n">
+      <c r="L43" s="9">
         <v>3331739</v>
       </c>
-      <c r="M43" s="10" t="n">
+      <c r="M43" s="9">
         <v>-3049310</v>
       </c>
-      <c r="N43" s="10" t="n">
+      <c r="N43" s="9">
         <v>68114</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12" t="n">
+      <c r="D44" s="11"/>
+      <c r="E44" s="11">
         <v>-66929670</v>
       </c>
-      <c r="F44" s="12" t="n">
+      <c r="F44" s="11">
         <v>16757124</v>
       </c>
-      <c r="G44" s="12" t="n">
+      <c r="G44" s="11">
         <v>33882453</v>
       </c>
-      <c r="H44" s="12" t="n">
+      <c r="H44" s="11">
         <v>19723010</v>
       </c>
-      <c r="I44" s="12" t="n">
+      <c r="I44" s="11">
         <v>-19474980</v>
       </c>
-      <c r="J44" s="12" t="n">
+      <c r="J44" s="11">
         <v>50095</v>
       </c>
-      <c r="K44" s="12" t="n">
+      <c r="K44" s="11">
         <v>60760</v>
       </c>
-      <c r="L44" s="12" t="n">
+      <c r="L44" s="11">
         <v>523200</v>
       </c>
-      <c r="M44" s="12" t="n">
+      <c r="M44" s="11">
         <v>-418159</v>
       </c>
-      <c r="N44" s="12" t="n">
+      <c r="N44" s="11">
         <v>-8180</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="n">
+      <c r="D45" s="9"/>
+      <c r="E45" s="9">
         <v>-1057892</v>
       </c>
-      <c r="F45" s="10" t="n">
+      <c r="F45" s="9">
         <v>-373698</v>
       </c>
-      <c r="G45" s="10" t="n">
+      <c r="G45" s="9">
         <v>19410</v>
       </c>
-      <c r="H45" s="10" t="n">
+      <c r="H45" s="9">
         <v>50304</v>
       </c>
-      <c r="I45" s="10" t="n">
+      <c r="I45" s="9">
         <v>-2263</v>
       </c>
-      <c r="J45" s="10" t="n">
+      <c r="J45" s="9">
         <v>5707</v>
       </c>
-      <c r="K45" s="10" t="n">
+      <c r="K45" s="9">
         <v>6375</v>
       </c>
-      <c r="L45" s="10" t="n">
+      <c r="L45" s="9">
         <v>73108976</v>
       </c>
-      <c r="M45" s="10" t="n">
+      <c r="M45" s="9">
         <v>-73093697</v>
       </c>
-      <c r="N45" s="10" t="n">
+      <c r="N45" s="9">
         <v>-2462</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="11" t="s">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12" t="n">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11">
         <v>-22475729</v>
       </c>
-      <c r="F46" s="12" t="n">
+      <c r="F46" s="11">
         <v>17088653</v>
       </c>
-      <c r="G46" s="12" t="n">
+      <c r="G46" s="11">
         <v>24416093</v>
       </c>
-      <c r="H46" s="12" t="n">
+      <c r="H46" s="11">
         <v>2074869</v>
       </c>
-      <c r="I46" s="12" t="n">
+      <c r="I46" s="11">
         <v>-1514129</v>
       </c>
-      <c r="J46" s="12" t="n">
+      <c r="J46" s="11">
         <v>98877</v>
       </c>
-      <c r="K46" s="12" t="n">
+      <c r="K46" s="11">
         <v>489574</v>
       </c>
-      <c r="L46" s="12" t="n">
+      <c r="L46" s="11">
         <v>1649654</v>
       </c>
-      <c r="M46" s="12" t="n">
+      <c r="M46" s="11">
         <v>-835327</v>
       </c>
-      <c r="N46" s="12" t="n">
+      <c r="N46" s="11">
         <v>222960</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="15" t="s">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16" t="n">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15">
         <v>-98038645</v>
       </c>
-      <c r="F47" s="16" t="n">
+      <c r="F47" s="15">
         <v>33434059</v>
       </c>
-      <c r="G47" s="16" t="n">
+      <c r="G47" s="15">
         <v>58587582</v>
       </c>
-      <c r="H47" s="16" t="n">
+      <c r="H47" s="15">
         <v>22786945</v>
       </c>
-      <c r="I47" s="16" t="n">
+      <c r="I47" s="15">
         <v>-21525855</v>
       </c>
-      <c r="J47" s="16" t="n">
+      <c r="J47" s="15">
         <v>441718</v>
       </c>
-      <c r="K47" s="16" t="n">
+      <c r="K47" s="15">
         <v>790558</v>
       </c>
-      <c r="L47" s="16" t="n">
+      <c r="L47" s="15">
         <v>96580171</v>
       </c>
-      <c r="M47" s="16" t="n">
+      <c r="M47" s="15">
         <v>-95198991</v>
       </c>
-      <c r="N47" s="16" t="n">
+      <c r="N47" s="15">
         <v>297452</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2942,7 +2164,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2957,7 +2179,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2972,44 +2194,44 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="6" t="s">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N51" s="8" t="s">
+      <c r="N51" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3024,278 +2246,278 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="9" t="s">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="n">
+      <c r="D53" s="9"/>
+      <c r="E53" s="9">
         <v>-5958737</v>
       </c>
-      <c r="F53" s="10" t="n">
+      <c r="F53" s="9">
         <v>151229</v>
       </c>
-      <c r="G53" s="10" t="n">
+      <c r="G53" s="9">
         <v>8371</v>
       </c>
-      <c r="H53" s="10" t="n">
+      <c r="H53" s="9">
         <v>170996</v>
       </c>
-      <c r="I53" s="10" t="n">
+      <c r="I53" s="9">
         <v>-27444</v>
       </c>
-      <c r="J53" s="10" t="n">
+      <c r="J53" s="9">
         <v>22393</v>
       </c>
-      <c r="K53" s="10" t="n">
+      <c r="K53" s="9">
         <v>171930</v>
       </c>
-      <c r="L53" s="10" t="n">
+      <c r="L53" s="9">
         <v>7709747</v>
       </c>
-      <c r="M53" s="10" t="n">
+      <c r="M53" s="9">
         <v>-7587043</v>
       </c>
-      <c r="N53" s="10" t="n">
+      <c r="N53" s="9">
         <v>82182</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12" t="n">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11">
         <v>-129100</v>
       </c>
-      <c r="F54" s="12" t="n">
+      <c r="F54" s="11">
         <v>-27219</v>
       </c>
-      <c r="G54" s="12" t="n">
+      <c r="G54" s="11">
         <v>-2181</v>
       </c>
-      <c r="H54" s="12" t="n">
+      <c r="H54" s="11">
         <v>297248</v>
       </c>
-      <c r="I54" s="12" t="n">
+      <c r="I54" s="11">
         <v>-143300</v>
       </c>
-      <c r="J54" s="12" t="n">
+      <c r="J54" s="11">
         <v>70512</v>
       </c>
-      <c r="K54" s="12" t="n">
+      <c r="K54" s="11">
         <v>129465</v>
       </c>
-      <c r="L54" s="12" t="n">
+      <c r="L54" s="11">
         <v>2319595</v>
       </c>
-      <c r="M54" s="12" t="n">
+      <c r="M54" s="11">
         <v>-2304568</v>
       </c>
-      <c r="N54" s="12" t="n">
+      <c r="N54" s="11">
         <v>4585</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="9" t="s">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10" t="n">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9">
         <v>-103992</v>
       </c>
-      <c r="F55" s="10" t="n">
+      <c r="F55" s="9">
         <v>26428</v>
       </c>
-      <c r="G55" s="10" t="n">
+      <c r="G55" s="9">
         <v>-52728</v>
       </c>
-      <c r="H55" s="10" t="n">
+      <c r="H55" s="9">
         <v>782002</v>
       </c>
-      <c r="I55" s="10" t="n">
+      <c r="I55" s="9">
         <v>-561912</v>
       </c>
-      <c r="J55" s="10" t="n">
+      <c r="J55" s="9">
         <v>343548</v>
       </c>
-      <c r="K55" s="10" t="n">
+      <c r="K55" s="9">
         <v>-222496</v>
       </c>
-      <c r="L55" s="10" t="n">
+      <c r="L55" s="9">
         <v>2096060</v>
       </c>
-      <c r="M55" s="10" t="n">
+      <c r="M55" s="9">
         <v>-1816204</v>
       </c>
-      <c r="N55" s="10" t="n">
+      <c r="N55" s="9">
         <v>168214</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="11" t="s">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12" t="n">
+      <c r="D56" s="11"/>
+      <c r="E56" s="11">
         <v>-75520922</v>
       </c>
-      <c r="F56" s="12" t="n">
+      <c r="F56" s="11">
         <v>15549104</v>
       </c>
-      <c r="G56" s="12" t="n">
+      <c r="G56" s="11">
         <v>33635196</v>
       </c>
-      <c r="H56" s="12" t="n">
+      <c r="H56" s="11">
         <v>38006321</v>
       </c>
-      <c r="I56" s="12" t="n">
+      <c r="I56" s="11">
         <v>-37843858</v>
       </c>
-      <c r="J56" s="12" t="n">
+      <c r="J56" s="11">
         <v>26342393</v>
       </c>
-      <c r="K56" s="12" t="n">
+      <c r="K56" s="11">
         <v>-25988331</v>
       </c>
-      <c r="L56" s="12" t="n">
+      <c r="L56" s="11">
         <v>31732171</v>
       </c>
-      <c r="M56" s="12" t="n">
+      <c r="M56" s="11">
         <v>-31561843</v>
       </c>
-      <c r="N56" s="12" t="n">
+      <c r="N56" s="11">
         <v>63795</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="9" t="s">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10" t="n">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9">
         <v>-953023</v>
       </c>
-      <c r="F57" s="10" t="n">
+      <c r="F57" s="9">
         <v>-292137</v>
       </c>
-      <c r="G57" s="10" t="n">
+      <c r="G57" s="9">
         <v>27759</v>
       </c>
-      <c r="H57" s="10" t="n">
+      <c r="H57" s="9">
         <v>45263</v>
       </c>
-      <c r="I57" s="10" t="n">
+      <c r="I57" s="9">
         <v>513</v>
       </c>
-      <c r="J57" s="10" t="n">
+      <c r="J57" s="9">
         <v>647</v>
       </c>
-      <c r="K57" s="10" t="n">
+      <c r="K57" s="9">
         <v>14961</v>
       </c>
-      <c r="L57" s="10" t="n">
+      <c r="L57" s="9">
         <v>19480779</v>
       </c>
-      <c r="M57" s="10" t="n">
+      <c r="M57" s="9">
         <v>-19465922</v>
       </c>
-      <c r="N57" s="10" t="n">
+      <c r="N57" s="9">
         <v>4027</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="11" t="s">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12" t="n">
+      <c r="D58" s="11"/>
+      <c r="E58" s="11">
         <v>1733050</v>
       </c>
-      <c r="F58" s="12" t="n">
+      <c r="F58" s="11">
         <v>-8033799</v>
       </c>
-      <c r="G58" s="12" t="n">
+      <c r="G58" s="11">
         <v>37310649</v>
       </c>
-      <c r="H58" s="12" t="n">
+      <c r="H58" s="11">
         <v>13381054</v>
       </c>
-      <c r="I58" s="12" t="n">
+      <c r="I58" s="11">
         <v>2834657</v>
       </c>
-      <c r="J58" s="12" t="n">
+      <c r="J58" s="11">
         <v>-4409087</v>
       </c>
-      <c r="K58" s="12" t="n">
+      <c r="K58" s="11">
         <v>-9606684</v>
       </c>
-      <c r="L58" s="12" t="n">
+      <c r="L58" s="11">
         <v>15468650</v>
       </c>
-      <c r="M58" s="12" t="n">
+      <c r="M58" s="11">
         <v>-14319314</v>
       </c>
-      <c r="N58" s="12" t="n">
+      <c r="N58" s="11">
         <v>720631</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="15" t="s">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16" t="n">
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15">
         <v>-80932724</v>
       </c>
-      <c r="F59" s="16" t="n">
+      <c r="F59" s="15">
         <v>7373606</v>
       </c>
-      <c r="G59" s="16" t="n">
+      <c r="G59" s="15">
         <v>70927066</v>
       </c>
-      <c r="H59" s="16" t="n">
+      <c r="H59" s="15">
         <v>52682884</v>
       </c>
-      <c r="I59" s="16" t="n">
+      <c r="I59" s="15">
         <v>-35741344</v>
       </c>
-      <c r="J59" s="16" t="n">
+      <c r="J59" s="15">
         <v>22370406</v>
       </c>
-      <c r="K59" s="16" t="n">
+      <c r="K59" s="15">
         <v>-35501155</v>
       </c>
-      <c r="L59" s="16" t="n">
+      <c r="L59" s="15">
         <v>78807002</v>
       </c>
-      <c r="M59" s="16" t="n">
+      <c r="M59" s="15">
         <v>-77054894</v>
       </c>
-      <c r="N59" s="16" t="n">
+      <c r="N59" s="15">
         <v>1043434</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3310,7 +2532,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3325,7 +2547,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3340,44 +2562,44 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="6" t="s">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="8" t="s">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="L63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="M63" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N63" s="8" t="s">
+      <c r="N63" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3392,278 +2614,278 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="9" t="s">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10" t="n">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9">
         <v>247276</v>
       </c>
-      <c r="F65" s="10" t="n">
+      <c r="F65" s="9">
         <v>30223</v>
       </c>
-      <c r="G65" s="10" t="n">
+      <c r="G65" s="9">
         <v>64041</v>
       </c>
-      <c r="H65" s="10" t="n">
+      <c r="H65" s="9">
         <v>73485</v>
       </c>
-      <c r="I65" s="10" t="n">
+      <c r="I65" s="9">
         <v>61475</v>
       </c>
-      <c r="J65" s="10" t="n">
+      <c r="J65" s="9">
         <v>122962</v>
       </c>
-      <c r="K65" s="10" t="n">
+      <c r="K65" s="9">
         <v>38317</v>
       </c>
-      <c r="L65" s="10" t="n">
+      <c r="L65" s="9">
         <v>6963433</v>
       </c>
-      <c r="M65" s="10" t="n">
+      <c r="M65" s="9">
         <v>165095</v>
       </c>
-      <c r="N65" s="10" t="n">
+      <c r="N65" s="9">
         <v>99860</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="11" t="s">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12" t="n">
+      <c r="D66" s="11"/>
+      <c r="E66" s="11">
         <v>120137</v>
       </c>
-      <c r="F66" s="12" t="n">
+      <c r="F66" s="11">
         <v>120992</v>
       </c>
-      <c r="G66" s="12" t="n">
+      <c r="G66" s="11">
         <v>215764</v>
       </c>
-      <c r="H66" s="12" t="n">
+      <c r="H66" s="11">
         <v>209067</v>
       </c>
-      <c r="I66" s="12" t="n">
+      <c r="I66" s="11">
         <v>91249</v>
       </c>
-      <c r="J66" s="12" t="n">
+      <c r="J66" s="11">
         <v>27205</v>
       </c>
-      <c r="K66" s="12" t="n">
+      <c r="K66" s="11">
         <v>107045</v>
       </c>
-      <c r="L66" s="12" t="n">
+      <c r="L66" s="11">
         <v>1119189</v>
       </c>
-      <c r="M66" s="12" t="n">
+      <c r="M66" s="11">
         <v>47501</v>
       </c>
-      <c r="N66" s="12" t="n">
+      <c r="N66" s="11">
         <v>42989</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="9" t="s">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10" t="n">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9">
         <v>213433</v>
       </c>
-      <c r="F67" s="10" t="n">
+      <c r="F67" s="9">
         <v>241173</v>
       </c>
-      <c r="G67" s="10" t="n">
+      <c r="G67" s="9">
         <v>428747</v>
       </c>
-      <c r="H67" s="10" t="n">
+      <c r="H67" s="9">
         <v>114516</v>
       </c>
-      <c r="I67" s="10" t="n">
+      <c r="I67" s="9">
         <v>442517</v>
       </c>
-      <c r="J67" s="10" t="n">
+      <c r="J67" s="9">
         <v>295661</v>
       </c>
-      <c r="K67" s="10" t="n">
+      <c r="K67" s="9">
         <v>455416</v>
       </c>
-      <c r="L67" s="10" t="n">
+      <c r="L67" s="9">
         <v>1691095</v>
       </c>
-      <c r="M67" s="10" t="n">
+      <c r="M67" s="9">
         <v>356625</v>
       </c>
-      <c r="N67" s="10" t="n">
+      <c r="N67" s="9">
         <v>256525</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="11" t="s">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12" t="n">
+      <c r="D68" s="11"/>
+      <c r="E68" s="11">
         <v>32584679</v>
       </c>
-      <c r="F68" s="12" t="n">
+      <c r="F68" s="11">
         <v>33792699</v>
       </c>
-      <c r="G68" s="12" t="n">
+      <c r="G68" s="11">
         <v>34039956</v>
       </c>
-      <c r="H68" s="12" t="n">
+      <c r="H68" s="11">
         <v>15756645</v>
       </c>
-      <c r="I68" s="12" t="n">
+      <c r="I68" s="11">
         <v>34125523</v>
       </c>
-      <c r="J68" s="12" t="n">
+      <c r="J68" s="11">
         <v>7833225</v>
       </c>
-      <c r="K68" s="12" t="n">
+      <c r="K68" s="11">
         <v>33882316</v>
       </c>
-      <c r="L68" s="12" t="n">
+      <c r="L68" s="11">
         <v>2673345</v>
       </c>
-      <c r="M68" s="12" t="n">
+      <c r="M68" s="11">
         <v>226739576</v>
       </c>
-      <c r="N68" s="12" t="n">
+      <c r="N68" s="11">
         <v>226667601</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="9" t="s">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10" t="n">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9">
         <v>106011</v>
       </c>
-      <c r="F69" s="10" t="n">
+      <c r="F69" s="9">
         <v>24450</v>
       </c>
-      <c r="G69" s="10" t="n">
+      <c r="G69" s="9">
         <v>16101</v>
       </c>
-      <c r="H69" s="10" t="n">
+      <c r="H69" s="9">
         <v>21142</v>
       </c>
-      <c r="I69" s="10" t="n">
+      <c r="I69" s="9">
         <v>18366</v>
       </c>
-      <c r="J69" s="10" t="n">
+      <c r="J69" s="9">
         <v>23426</v>
       </c>
-      <c r="K69" s="10" t="n">
+      <c r="K69" s="9">
         <v>14840</v>
       </c>
-      <c r="L69" s="10" t="n">
+      <c r="L69" s="9">
         <v>53643037</v>
       </c>
-      <c r="M69" s="10" t="n">
+      <c r="M69" s="9">
         <v>53734</v>
       </c>
-      <c r="N69" s="10" t="n">
+      <c r="N69" s="9">
         <v>47245</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="11" t="s">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12" t="n">
+      <c r="D70" s="11"/>
+      <c r="E70" s="11">
         <v>7201105</v>
       </c>
-      <c r="F70" s="12" t="n">
+      <c r="F70" s="11">
         <v>32323537</v>
       </c>
-      <c r="G70" s="12" t="n">
+      <c r="G70" s="11">
         <v>19428981</v>
       </c>
-      <c r="H70" s="12" t="n">
+      <c r="H70" s="11">
         <v>8122796</v>
       </c>
-      <c r="I70" s="12" t="n">
+      <c r="I70" s="11">
         <v>3774010</v>
       </c>
-      <c r="J70" s="12" t="n">
+      <c r="J70" s="11">
         <v>8281974</v>
       </c>
-      <c r="K70" s="12" t="n">
+      <c r="K70" s="11">
         <v>18378232</v>
       </c>
-      <c r="L70" s="12" t="n">
+      <c r="L70" s="11">
         <v>4559236</v>
       </c>
-      <c r="M70" s="12" t="n">
+      <c r="M70" s="11">
         <v>61444807</v>
       </c>
-      <c r="N70" s="12" t="n">
+      <c r="N70" s="11">
         <v>60947136</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16" t="n">
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15">
         <v>40472641</v>
       </c>
-      <c r="F71" s="16" t="n">
+      <c r="F71" s="15">
         <v>66533074</v>
       </c>
-      <c r="G71" s="16" t="n">
+      <c r="G71" s="15">
         <v>54193590</v>
       </c>
-      <c r="H71" s="16" t="n">
+      <c r="H71" s="15">
         <v>24297651</v>
       </c>
-      <c r="I71" s="16" t="n">
+      <c r="I71" s="15">
         <v>38513140</v>
       </c>
-      <c r="J71" s="16" t="n">
+      <c r="J71" s="15">
         <v>16584453</v>
       </c>
-      <c r="K71" s="16" t="n">
+      <c r="K71" s="15">
         <v>52876166</v>
       </c>
-      <c r="L71" s="16" t="n">
+      <c r="L71" s="15">
         <v>70649335</v>
       </c>
-      <c r="M71" s="16" t="n">
+      <c r="M71" s="15">
         <v>288807338</v>
       </c>
-      <c r="N71" s="16" t="n">
+      <c r="N71" s="15">
         <v>288061356</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3678,7 +2900,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3693,7 +2915,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3708,44 +2930,44 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="6" t="s">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B75" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8" t="s">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L75" s="8" t="s">
+      <c r="L75" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M75" s="8" t="s">
+      <c r="M75" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N75" s="8" t="s">
+      <c r="N75" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3760,278 +2982,278 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="9" t="s">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10" t="n">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9">
         <v>290955</v>
       </c>
-      <c r="F77" s="10" t="n">
+      <c r="F77" s="9">
         <v>286564</v>
       </c>
-      <c r="G77" s="10" t="n">
+      <c r="G77" s="9">
         <v>231299</v>
       </c>
-      <c r="H77" s="10" t="n">
+      <c r="H77" s="9">
         <v>286734</v>
       </c>
-      <c r="I77" s="10" t="n">
+      <c r="I77" s="9">
         <v>263386</v>
       </c>
-      <c r="J77" s="10" t="n">
+      <c r="J77" s="9">
         <v>658907</v>
       </c>
-      <c r="K77" s="10" t="n">
+      <c r="K77" s="9">
         <v>414931</v>
       </c>
-      <c r="L77" s="10" t="n">
+      <c r="L77" s="9">
         <v>343709</v>
       </c>
-      <c r="M77" s="10" t="n">
+      <c r="M77" s="9">
         <v>398217</v>
       </c>
-      <c r="N77" s="10" t="n">
+      <c r="N77" s="9">
         <v>588521</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="11" t="s">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12" t="n">
+      <c r="D78" s="11"/>
+      <c r="E78" s="11">
         <v>159144</v>
       </c>
-      <c r="F78" s="12" t="n">
+      <c r="F78" s="11">
         <v>186201</v>
       </c>
-      <c r="G78" s="12" t="n">
+      <c r="G78" s="11">
         <v>121657</v>
       </c>
-      <c r="H78" s="12" t="n">
+      <c r="H78" s="11">
         <v>125199</v>
       </c>
-      <c r="I78" s="12" t="n">
+      <c r="I78" s="11">
         <v>106476</v>
       </c>
-      <c r="J78" s="12" t="n">
+      <c r="J78" s="11">
         <v>196497</v>
       </c>
-      <c r="K78" s="12" t="n">
+      <c r="K78" s="11">
         <v>131470</v>
       </c>
-      <c r="L78" s="12" t="n">
+      <c r="L78" s="11">
         <v>48719</v>
       </c>
-      <c r="M78" s="12" t="n">
+      <c r="M78" s="11">
         <v>50318</v>
       </c>
-      <c r="N78" s="12" t="n">
+      <c r="N78" s="11">
         <v>87626</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="9" t="s">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10" t="n">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9">
         <v>436471</v>
       </c>
-      <c r="F79" s="10" t="n">
+      <c r="F79" s="9">
         <v>409364</v>
       </c>
-      <c r="G79" s="10" t="n">
+      <c r="G79" s="9">
         <v>220519</v>
       </c>
-      <c r="H79" s="10" t="n">
+      <c r="H79" s="9">
         <v>357529</v>
       </c>
-      <c r="I79" s="10" t="n">
+      <c r="I79" s="9">
         <v>372074</v>
       </c>
-      <c r="J79" s="10" t="n">
+      <c r="J79" s="9">
         <v>482739</v>
       </c>
-      <c r="K79" s="10" t="n">
+      <c r="K79" s="9">
         <v>357999</v>
       </c>
-      <c r="L79" s="10" t="n">
+      <c r="L79" s="9">
         <v>486650</v>
       </c>
-      <c r="M79" s="10" t="n">
+      <c r="M79" s="9">
         <v>482933</v>
       </c>
-      <c r="N79" s="10" t="n">
+      <c r="N79" s="9">
         <v>441228</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="11" t="s">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12" t="n">
+      <c r="D80" s="11"/>
+      <c r="E80" s="11">
         <v>56602</v>
       </c>
-      <c r="F80" s="12" t="n">
+      <c r="F80" s="11">
         <v>233289</v>
       </c>
-      <c r="G80" s="12" t="n">
+      <c r="G80" s="11">
         <v>293712</v>
       </c>
-      <c r="H80" s="12" t="n">
+      <c r="H80" s="11">
         <v>285389</v>
       </c>
-      <c r="I80" s="12" t="n">
+      <c r="I80" s="11">
         <v>338545</v>
       </c>
-      <c r="J80" s="12" t="n">
+      <c r="J80" s="11">
         <v>419190</v>
       </c>
-      <c r="K80" s="12" t="n">
+      <c r="K80" s="11">
         <v>135139</v>
       </c>
-      <c r="L80" s="12" t="n">
+      <c r="L80" s="11">
         <v>367958</v>
       </c>
-      <c r="M80" s="12" t="n">
+      <c r="M80" s="11">
         <v>243787</v>
       </c>
-      <c r="N80" s="12" t="n">
+      <c r="N80" s="11">
         <v>149944</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="9" t="s">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10" t="n">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9">
         <v>10479</v>
       </c>
-      <c r="F81" s="10" t="n">
+      <c r="F81" s="9">
         <v>210023</v>
       </c>
-      <c r="G81" s="10" t="n">
+      <c r="G81" s="9">
         <v>269954</v>
       </c>
-      <c r="H81" s="10" t="n">
+      <c r="H81" s="9">
         <v>334338</v>
       </c>
-      <c r="I81" s="10" t="n">
+      <c r="I81" s="9">
         <v>203542</v>
       </c>
-      <c r="J81" s="10" t="n">
+      <c r="J81" s="9">
         <v>482560</v>
       </c>
-      <c r="K81" s="10" t="n">
+      <c r="K81" s="9">
         <v>248816</v>
       </c>
-      <c r="L81" s="10" t="n">
+      <c r="L81" s="9">
         <v>434835</v>
       </c>
-      <c r="M81" s="10" t="n">
+      <c r="M81" s="9">
         <v>377026</v>
       </c>
-      <c r="N81" s="10" t="n">
+      <c r="N81" s="9">
         <v>235742</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="11" t="s">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12" t="n">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11">
         <v>59951</v>
       </c>
-      <c r="F82" s="12" t="n">
+      <c r="F82" s="11">
         <v>89833</v>
       </c>
-      <c r="G82" s="12" t="n">
+      <c r="G82" s="11">
         <v>175687</v>
       </c>
-      <c r="H82" s="12" t="n">
+      <c r="H82" s="11">
         <v>258010</v>
       </c>
-      <c r="I82" s="12" t="n">
+      <c r="I82" s="11">
         <v>281324</v>
       </c>
-      <c r="J82" s="12" t="n">
+      <c r="J82" s="11">
         <v>399557</v>
       </c>
-      <c r="K82" s="12" t="n">
+      <c r="K82" s="11">
         <v>603884</v>
       </c>
-      <c r="L82" s="12" t="n">
+      <c r="L82" s="11">
         <v>371422</v>
       </c>
-      <c r="M82" s="12" t="n">
+      <c r="M82" s="11">
         <v>407297</v>
       </c>
-      <c r="N82" s="12" t="n">
+      <c r="N82" s="11">
         <v>201927</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="15" t="s">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B83" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16" t="n">
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15">
         <v>1013602</v>
       </c>
-      <c r="F83" s="16" t="n">
+      <c r="F83" s="15">
         <v>1415274</v>
       </c>
-      <c r="G83" s="16" t="n">
+      <c r="G83" s="15">
         <v>1312828</v>
       </c>
-      <c r="H83" s="16" t="n">
+      <c r="H83" s="15">
         <v>1647199</v>
       </c>
-      <c r="I83" s="16" t="n">
+      <c r="I83" s="15">
         <v>1565347</v>
       </c>
-      <c r="J83" s="16" t="n">
+      <c r="J83" s="15">
         <v>2639450</v>
       </c>
-      <c r="K83" s="16" t="n">
+      <c r="K83" s="15">
         <v>1892239</v>
       </c>
-      <c r="L83" s="16" t="n">
+      <c r="L83" s="15">
         <v>2053293</v>
       </c>
-      <c r="M83" s="16" t="n">
+      <c r="M83" s="15">
         <v>1959578</v>
       </c>
-      <c r="N83" s="16" t="n">
+      <c r="N83" s="15">
         <v>1704988</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4046,7 +3268,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4061,7 +3283,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4076,44 +3298,44 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="6" t="s">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B87" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="8" t="s">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="K87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L87" s="8" t="s">
+      <c r="L87" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M87" s="8" t="s">
+      <c r="M87" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N87" s="8" t="s">
+      <c r="N87" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4128,278 +3350,278 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="9" t="s">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10" t="n">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9">
         <v>181265</v>
       </c>
-      <c r="F89" s="10" t="n">
+      <c r="F89" s="9">
         <v>51264</v>
       </c>
-      <c r="G89" s="10" t="n">
+      <c r="G89" s="9">
         <v>884949</v>
       </c>
-      <c r="H89" s="10" t="n">
+      <c r="H89" s="9">
         <v>170387</v>
       </c>
-      <c r="I89" s="10" t="n">
+      <c r="I89" s="9">
         <v>545037</v>
       </c>
-      <c r="J89" s="10" t="n">
+      <c r="J89" s="9">
         <v>434854</v>
       </c>
-      <c r="K89" s="10" t="n">
+      <c r="K89" s="9">
         <v>436368</v>
       </c>
-      <c r="L89" s="10" t="n">
+      <c r="L89" s="9">
         <v>364784</v>
       </c>
-      <c r="M89" s="10" t="n">
+      <c r="M89" s="9">
         <v>517677</v>
       </c>
-      <c r="N89" s="10" t="n">
+      <c r="N89" s="9">
         <v>655890</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="11" t="s">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12" t="n">
+      <c r="D90" s="11"/>
+      <c r="E90" s="11">
         <v>41921</v>
       </c>
-      <c r="F90" s="12" t="n">
+      <c r="F90" s="11">
         <v>53115</v>
       </c>
-      <c r="G90" s="12" t="n">
+      <c r="G90" s="11">
         <v>66841</v>
       </c>
-      <c r="H90" s="12" t="n">
+      <c r="H90" s="11">
         <v>79491</v>
       </c>
-      <c r="I90" s="12" t="n">
+      <c r="I90" s="11">
         <v>427343</v>
       </c>
-      <c r="J90" s="12" t="n">
+      <c r="J90" s="11">
         <v>-295865</v>
       </c>
-      <c r="K90" s="12" t="n">
+      <c r="K90" s="11">
         <v>367504</v>
       </c>
-      <c r="L90" s="12" t="n">
+      <c r="L90" s="11">
         <v>97339</v>
       </c>
-      <c r="M90" s="12" t="n">
+      <c r="M90" s="11">
         <v>-24540</v>
       </c>
-      <c r="N90" s="12" t="n">
+      <c r="N90" s="11">
         <v>81855</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="9" t="s">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10" t="n">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9">
         <v>212684</v>
       </c>
-      <c r="F91" s="10" t="n">
+      <c r="F91" s="9">
         <v>-272141</v>
       </c>
-      <c r="G91" s="10" t="n">
+      <c r="G91" s="9">
         <v>292652</v>
       </c>
-      <c r="H91" s="10" t="n">
+      <c r="H91" s="9">
         <v>81795</v>
       </c>
-      <c r="I91" s="10" t="n">
+      <c r="I91" s="9">
         <v>100269</v>
       </c>
-      <c r="J91" s="10" t="n">
+      <c r="J91" s="9">
         <v>713302</v>
       </c>
-      <c r="K91" s="10" t="n">
+      <c r="K91" s="9">
         <v>-27657</v>
       </c>
-      <c r="L91" s="10" t="n">
+      <c r="L91" s="9">
         <v>146008</v>
       </c>
-      <c r="M91" s="10" t="n">
+      <c r="M91" s="9">
         <v>485799</v>
       </c>
-      <c r="N91" s="10" t="n">
+      <c r="N91" s="9">
         <v>435998</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="11" t="s">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B92" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12" t="n">
+      <c r="D92" s="11"/>
+      <c r="E92" s="11">
         <v>173122</v>
       </c>
-      <c r="F92" s="12" t="n">
+      <c r="F92" s="11">
         <v>402076</v>
       </c>
-      <c r="G92" s="12" t="n">
+      <c r="G92" s="11">
         <v>-294452</v>
       </c>
-      <c r="H92" s="12" t="n">
+      <c r="H92" s="11">
         <v>114499</v>
       </c>
-      <c r="I92" s="12" t="n">
+      <c r="I92" s="11">
         <v>63220</v>
       </c>
-      <c r="J92" s="12" t="n">
+      <c r="J92" s="11">
         <v>61156</v>
       </c>
-      <c r="K92" s="12" t="n">
+      <c r="K92" s="11">
         <v>125721</v>
       </c>
-      <c r="L92" s="12" t="n">
+      <c r="L92" s="11">
         <v>1151</v>
       </c>
-      <c r="M92" s="12" t="n">
+      <c r="M92" s="11">
         <v>82844</v>
       </c>
-      <c r="N92" s="12" t="n">
+      <c r="N92" s="11">
         <v>26749</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="9" t="s">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B93" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10" t="n">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9">
         <v>367264</v>
       </c>
-      <c r="F93" s="10" t="n">
+      <c r="F93" s="9">
         <v>173269</v>
       </c>
-      <c r="G93" s="10" t="n">
+      <c r="G93" s="9">
         <v>210040</v>
       </c>
-      <c r="H93" s="10" t="n">
+      <c r="H93" s="9">
         <v>128812</v>
       </c>
-      <c r="I93" s="10" t="n">
+      <c r="I93" s="9">
         <v>535665</v>
       </c>
-      <c r="J93" s="10" t="n">
+      <c r="J93" s="9">
         <v>76407</v>
       </c>
-      <c r="K93" s="10" t="n">
+      <c r="K93" s="9">
         <v>143121</v>
       </c>
-      <c r="L93" s="10" t="n">
+      <c r="L93" s="9">
         <v>165016</v>
       </c>
-      <c r="M93" s="10" t="n">
+      <c r="M93" s="9">
         <v>88558</v>
       </c>
-      <c r="N93" s="10" t="n">
+      <c r="N93" s="9">
         <v>135361</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="11" t="s">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12" t="n">
+      <c r="D94" s="11"/>
+      <c r="E94" s="11">
         <v>82585</v>
       </c>
-      <c r="F94" s="12" t="n">
+      <c r="F94" s="11">
         <v>252859</v>
       </c>
-      <c r="G94" s="12" t="n">
+      <c r="G94" s="11">
         <v>8019</v>
       </c>
-      <c r="H94" s="12" t="n">
+      <c r="H94" s="11">
         <v>178564</v>
       </c>
-      <c r="I94" s="12" t="n">
+      <c r="I94" s="11">
         <v>145774</v>
       </c>
-      <c r="J94" s="12" t="n">
+      <c r="J94" s="11">
         <v>254494</v>
       </c>
-      <c r="K94" s="12" t="n">
+      <c r="K94" s="11">
         <v>238278</v>
       </c>
-      <c r="L94" s="12" t="n">
+      <c r="L94" s="11">
         <v>195289</v>
       </c>
-      <c r="M94" s="12" t="n">
+      <c r="M94" s="11">
         <v>278814</v>
       </c>
-      <c r="N94" s="12" t="n">
+      <c r="N94" s="11">
         <v>393741</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="15" t="s">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16" t="n">
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15">
         <v>1058841</v>
       </c>
-      <c r="F95" s="16" t="n">
+      <c r="F95" s="15">
         <v>660442</v>
       </c>
-      <c r="G95" s="16" t="n">
+      <c r="G95" s="15">
         <v>1168049</v>
       </c>
-      <c r="H95" s="16" t="n">
+      <c r="H95" s="15">
         <v>753548</v>
       </c>
-      <c r="I95" s="16" t="n">
+      <c r="I95" s="15">
         <v>1817308</v>
       </c>
-      <c r="J95" s="16" t="n">
+      <c r="J95" s="15">
         <v>1244348</v>
       </c>
-      <c r="K95" s="16" t="n">
+      <c r="K95" s="15">
         <v>1283335</v>
       </c>
-      <c r="L95" s="16" t="n">
+      <c r="L95" s="15">
         <v>969587</v>
       </c>
-      <c r="M95" s="16" t="n">
+      <c r="M95" s="15">
         <v>1429152</v>
       </c>
-      <c r="N95" s="16" t="n">
+      <c r="N95" s="15">
         <v>1729594</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4414,7 +3636,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4429,7 +3651,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4444,44 +3666,44 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="6" t="s">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B99" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="8" t="s">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="K99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L99" s="8" t="s">
+      <c r="L99" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M99" s="8" t="s">
+      <c r="M99" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N99" s="8" t="s">
+      <c r="N99" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4496,278 +3718,278 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="9" t="s">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10" t="n">
+      <c r="D101" s="9"/>
+      <c r="E101" s="9">
         <v>185656</v>
       </c>
-      <c r="F101" s="10" t="n">
+      <c r="F101" s="9">
         <v>106529</v>
       </c>
-      <c r="G101" s="10" t="n">
+      <c r="G101" s="9">
         <v>803423</v>
       </c>
-      <c r="H101" s="10" t="n">
+      <c r="H101" s="9">
         <v>193735</v>
       </c>
-      <c r="I101" s="10" t="n">
+      <c r="I101" s="9">
         <v>535761</v>
       </c>
-      <c r="J101" s="10" t="n">
+      <c r="J101" s="9">
         <v>292585</v>
       </c>
-      <c r="K101" s="10" t="n">
+      <c r="K101" s="9">
         <v>507590</v>
       </c>
-      <c r="L101" s="10" t="n">
+      <c r="L101" s="9">
         <v>310276</v>
       </c>
-      <c r="M101" s="10" t="n">
+      <c r="M101" s="9">
         <v>426406</v>
       </c>
-      <c r="N101" s="10" t="n">
+      <c r="N101" s="9">
         <v>679983</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="11" t="s">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B102" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12" t="n">
+      <c r="D102" s="11"/>
+      <c r="E102" s="11">
         <v>14864</v>
       </c>
-      <c r="F102" s="12" t="n">
+      <c r="F102" s="11">
         <v>117659</v>
       </c>
-      <c r="G102" s="12" t="n">
+      <c r="G102" s="11">
         <v>63299</v>
       </c>
-      <c r="H102" s="12" t="n">
+      <c r="H102" s="11">
         <v>98214</v>
       </c>
-      <c r="I102" s="12" t="n">
+      <c r="I102" s="11">
         <v>230415</v>
       </c>
-      <c r="J102" s="12" t="n">
+      <c r="J102" s="11">
         <v>-123932</v>
       </c>
-      <c r="K102" s="12" t="n">
+      <c r="K102" s="11">
         <v>450255</v>
       </c>
-      <c r="L102" s="12" t="n">
+      <c r="L102" s="11">
         <v>95740</v>
       </c>
-      <c r="M102" s="12" t="n">
+      <c r="M102" s="11">
         <v>29094</v>
       </c>
-      <c r="N102" s="12" t="n">
+      <c r="N102" s="11">
         <v>89226</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="9" t="s">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10" t="n">
+      <c r="D103" s="9"/>
+      <c r="E103" s="9">
         <v>239791</v>
       </c>
-      <c r="F103" s="10" t="n">
+      <c r="F103" s="9">
         <v>-83296</v>
       </c>
-      <c r="G103" s="10" t="n">
+      <c r="G103" s="9">
         <v>155642</v>
       </c>
-      <c r="H103" s="10" t="n">
+      <c r="H103" s="9">
         <v>67250</v>
       </c>
-      <c r="I103" s="10" t="n">
+      <c r="I103" s="9">
         <v>216038</v>
       </c>
-      <c r="J103" s="10" t="n">
+      <c r="J103" s="9">
         <v>611608</v>
       </c>
-      <c r="K103" s="10" t="n">
+      <c r="K103" s="9">
         <v>-156335</v>
       </c>
-      <c r="L103" s="10" t="n">
+      <c r="L103" s="9">
         <v>149725</v>
       </c>
-      <c r="M103" s="10" t="n">
+      <c r="M103" s="9">
         <v>533770</v>
       </c>
-      <c r="N103" s="10" t="n">
+      <c r="N103" s="9">
         <v>470794</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="11" t="s">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B104" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12" t="n">
+      <c r="D104" s="11"/>
+      <c r="E104" s="11">
         <v>-3565</v>
       </c>
-      <c r="F104" s="12" t="n">
+      <c r="F104" s="11">
         <v>341653</v>
       </c>
-      <c r="G104" s="12" t="n">
+      <c r="G104" s="11">
         <v>-286129</v>
       </c>
-      <c r="H104" s="12" t="n">
+      <c r="H104" s="11">
         <v>61343</v>
       </c>
-      <c r="I104" s="12" t="n">
+      <c r="I104" s="11">
         <v>139049</v>
       </c>
-      <c r="J104" s="12" t="n">
+      <c r="J104" s="11">
         <v>188733</v>
       </c>
-      <c r="K104" s="12" t="n">
+      <c r="K104" s="11">
         <v>-107098</v>
       </c>
-      <c r="L104" s="12" t="n">
+      <c r="L104" s="11">
         <v>125322</v>
       </c>
-      <c r="M104" s="12" t="n">
+      <c r="M104" s="11">
         <v>20644</v>
       </c>
-      <c r="N104" s="12" t="n">
+      <c r="N104" s="11">
         <v>66810</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="9" t="s">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B105" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10" t="n">
+      <c r="D105" s="9"/>
+      <c r="E105" s="9">
         <v>167720</v>
       </c>
-      <c r="F105" s="10" t="n">
+      <c r="F105" s="9">
         <v>113338</v>
       </c>
-      <c r="G105" s="10" t="n">
+      <c r="G105" s="9">
         <v>145656</v>
       </c>
-      <c r="H105" s="10" t="n">
+      <c r="H105" s="9">
         <v>259608</v>
       </c>
-      <c r="I105" s="10" t="n">
+      <c r="I105" s="9">
         <v>298938</v>
       </c>
-      <c r="J105" s="10" t="n">
+      <c r="J105" s="9">
         <v>267860</v>
       </c>
-      <c r="K105" s="10" t="n">
+      <c r="K105" s="9">
         <v>-42898</v>
       </c>
-      <c r="L105" s="10" t="n">
+      <c r="L105" s="9">
         <v>222825</v>
       </c>
-      <c r="M105" s="10" t="n">
+      <c r="M105" s="9">
         <v>154211</v>
       </c>
-      <c r="N105" s="10" t="n">
+      <c r="N105" s="9">
         <v>168651</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="11" t="s">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B106" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12" t="n">
+      <c r="D106" s="11"/>
+      <c r="E106" s="11">
         <v>52703</v>
       </c>
-      <c r="F106" s="12" t="n">
+      <c r="F106" s="11">
         <v>167185</v>
       </c>
-      <c r="G106" s="12" t="n">
+      <c r="G106" s="11">
         <v>-74304</v>
       </c>
-      <c r="H106" s="12" t="n">
+      <c r="H106" s="11">
         <v>155250</v>
       </c>
-      <c r="I106" s="12" t="n">
+      <c r="I106" s="11">
         <v>119194</v>
       </c>
-      <c r="J106" s="12" t="n">
+      <c r="J106" s="11">
         <v>-41486</v>
       </c>
-      <c r="K106" s="12" t="n">
+      <c r="K106" s="11">
         <v>470740</v>
       </c>
-      <c r="L106" s="12" t="n">
+      <c r="L106" s="11">
         <v>159414</v>
       </c>
-      <c r="M106" s="12" t="n">
+      <c r="M106" s="11">
         <v>365130</v>
       </c>
-      <c r="N106" s="12" t="n">
+      <c r="N106" s="11">
         <v>355104</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="15" t="s">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16" t="n">
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15">
         <v>657169</v>
       </c>
-      <c r="F107" s="16" t="n">
+      <c r="F107" s="15">
         <v>763068</v>
       </c>
-      <c r="G107" s="16" t="n">
+      <c r="G107" s="15">
         <v>807587</v>
       </c>
-      <c r="H107" s="16" t="n">
+      <c r="H107" s="15">
         <v>835400</v>
       </c>
-      <c r="I107" s="16" t="n">
+      <c r="I107" s="15">
         <v>1539395</v>
       </c>
-      <c r="J107" s="16" t="n">
+      <c r="J107" s="15">
         <v>1195368</v>
       </c>
-      <c r="K107" s="16" t="n">
+      <c r="K107" s="15">
         <v>1122254</v>
       </c>
-      <c r="L107" s="16" t="n">
+      <c r="L107" s="15">
         <v>1063302</v>
       </c>
-      <c r="M107" s="16" t="n">
+      <c r="M107" s="15">
         <v>1529255</v>
       </c>
-      <c r="N107" s="16" t="n">
+      <c r="N107" s="15">
         <v>1830568</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4782,7 +4004,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4797,7 +4019,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4812,44 +4034,44 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="6" t="s">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B111" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="8" t="s">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G111" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="8" t="s">
+      <c r="H111" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I111" s="8" t="s">
+      <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="J111" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K111" s="8" t="s">
+      <c r="K111" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L111" s="8" t="s">
+      <c r="L111" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M111" s="8" t="s">
+      <c r="M111" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N111" s="8" t="s">
+      <c r="N111" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4864,278 +4086,278 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="9" t="s">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B113" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10" t="n">
+      <c r="D113" s="9"/>
+      <c r="E113" s="9">
         <v>286564</v>
       </c>
-      <c r="F113" s="10" t="n">
+      <c r="F113" s="9">
         <v>231299</v>
       </c>
-      <c r="G113" s="10" t="n">
+      <c r="G113" s="9">
         <v>286734</v>
       </c>
-      <c r="H113" s="10" t="n">
+      <c r="H113" s="9">
         <v>263386</v>
       </c>
-      <c r="I113" s="10" t="n">
+      <c r="I113" s="9">
         <v>272662</v>
       </c>
-      <c r="J113" s="10" t="n">
+      <c r="J113" s="9">
         <v>414931</v>
       </c>
-      <c r="K113" s="10" t="n">
+      <c r="K113" s="9">
         <v>343709</v>
       </c>
-      <c r="L113" s="10" t="n">
+      <c r="L113" s="9">
         <v>398217</v>
       </c>
-      <c r="M113" s="10" t="n">
+      <c r="M113" s="9">
         <v>588521</v>
       </c>
-      <c r="N113" s="10" t="n">
+      <c r="N113" s="9">
         <v>564428</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="11" t="s">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B114" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12" t="n">
+      <c r="D114" s="11"/>
+      <c r="E114" s="11">
         <v>186201</v>
       </c>
-      <c r="F114" s="12" t="n">
+      <c r="F114" s="11">
         <v>121657</v>
       </c>
-      <c r="G114" s="12" t="n">
+      <c r="G114" s="11">
         <v>125199</v>
       </c>
-      <c r="H114" s="12" t="n">
+      <c r="H114" s="11">
         <v>106476</v>
       </c>
-      <c r="I114" s="12" t="n">
+      <c r="I114" s="11">
         <v>303404</v>
       </c>
-      <c r="J114" s="12" t="n">
+      <c r="J114" s="11">
         <v>131470</v>
       </c>
-      <c r="K114" s="12" t="n">
+      <c r="K114" s="11">
         <v>48719</v>
       </c>
-      <c r="L114" s="12" t="n">
+      <c r="L114" s="11">
         <v>50318</v>
       </c>
-      <c r="M114" s="12" t="n">
+      <c r="M114" s="11">
         <v>87626</v>
       </c>
-      <c r="N114" s="12" t="n">
+      <c r="N114" s="11">
         <v>80255</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="9" t="s">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10" t="n">
+      <c r="D115" s="9"/>
+      <c r="E115" s="9">
         <v>409364</v>
       </c>
-      <c r="F115" s="10" t="n">
+      <c r="F115" s="9">
         <v>220519</v>
       </c>
-      <c r="G115" s="10" t="n">
+      <c r="G115" s="9">
         <v>357529</v>
       </c>
-      <c r="H115" s="10" t="n">
+      <c r="H115" s="9">
         <v>372074</v>
       </c>
-      <c r="I115" s="10" t="n">
+      <c r="I115" s="9">
         <v>256305</v>
       </c>
-      <c r="J115" s="10" t="n">
+      <c r="J115" s="9">
         <v>357999</v>
       </c>
-      <c r="K115" s="10" t="n">
+      <c r="K115" s="9">
         <v>486677</v>
       </c>
-      <c r="L115" s="10" t="n">
+      <c r="L115" s="9">
         <v>482933</v>
       </c>
-      <c r="M115" s="10" t="n">
+      <c r="M115" s="9">
         <v>441228</v>
       </c>
-      <c r="N115" s="10" t="n">
+      <c r="N115" s="9">
         <v>406432</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="11" t="s">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B116" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12" t="n">
+      <c r="D116" s="11"/>
+      <c r="E116" s="11">
         <v>233289</v>
       </c>
-      <c r="F116" s="12" t="n">
+      <c r="F116" s="11">
         <v>293712</v>
       </c>
-      <c r="G116" s="12" t="n">
+      <c r="G116" s="11">
         <v>285389</v>
       </c>
-      <c r="H116" s="12" t="n">
+      <c r="H116" s="11">
         <v>338545</v>
       </c>
-      <c r="I116" s="12" t="n">
+      <c r="I116" s="11">
         <v>262716</v>
       </c>
-      <c r="J116" s="12" t="n">
+      <c r="J116" s="11">
         <v>135139</v>
       </c>
-      <c r="K116" s="12" t="n">
+      <c r="K116" s="11">
         <v>367958</v>
       </c>
-      <c r="L116" s="12" t="n">
+      <c r="L116" s="11">
         <v>243787</v>
       </c>
-      <c r="M116" s="12" t="n">
+      <c r="M116" s="11">
         <v>149944</v>
       </c>
-      <c r="N116" s="12" t="n">
+      <c r="N116" s="11">
         <v>109883</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="9" t="s">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B117" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10" t="n">
+      <c r="D117" s="9"/>
+      <c r="E117" s="9">
         <v>210023</v>
       </c>
-      <c r="F117" s="10" t="n">
+      <c r="F117" s="9">
         <v>269954</v>
       </c>
-      <c r="G117" s="10" t="n">
+      <c r="G117" s="9">
         <v>334338</v>
       </c>
-      <c r="H117" s="10" t="n">
+      <c r="H117" s="9">
         <v>203542</v>
       </c>
-      <c r="I117" s="10" t="n">
+      <c r="I117" s="9">
         <v>440269</v>
       </c>
-      <c r="J117" s="10" t="n">
+      <c r="J117" s="9">
         <v>248816</v>
       </c>
-      <c r="K117" s="10" t="n">
+      <c r="K117" s="9">
         <v>434835</v>
       </c>
-      <c r="L117" s="10" t="n">
+      <c r="L117" s="9">
         <v>377026</v>
       </c>
-      <c r="M117" s="10" t="n">
+      <c r="M117" s="9">
         <v>235742</v>
       </c>
-      <c r="N117" s="10" t="n">
+      <c r="N117" s="9">
         <v>202452</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="11" t="s">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B118" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12" t="n">
+      <c r="D118" s="11"/>
+      <c r="E118" s="11">
         <v>89833</v>
       </c>
-      <c r="F118" s="12" t="n">
+      <c r="F118" s="11">
         <v>175687</v>
       </c>
-      <c r="G118" s="12" t="n">
+      <c r="G118" s="11">
         <v>258010</v>
       </c>
-      <c r="H118" s="12" t="n">
+      <c r="H118" s="11">
         <v>281324</v>
       </c>
-      <c r="I118" s="12" t="n">
+      <c r="I118" s="11">
         <v>307904</v>
       </c>
-      <c r="J118" s="12" t="n">
+      <c r="J118" s="11">
         <v>603884</v>
       </c>
-      <c r="K118" s="12" t="n">
+      <c r="K118" s="11">
         <v>371422</v>
       </c>
-      <c r="L118" s="12" t="n">
+      <c r="L118" s="11">
         <v>407297</v>
       </c>
-      <c r="M118" s="12" t="n">
+      <c r="M118" s="11">
         <v>201927</v>
       </c>
-      <c r="N118" s="12" t="n">
+      <c r="N118" s="11">
         <v>240564</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="15" t="s">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16" t="n">
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15">
         <v>1415274</v>
       </c>
-      <c r="F119" s="16" t="n">
+      <c r="F119" s="15">
         <v>1312828</v>
       </c>
-      <c r="G119" s="16" t="n">
+      <c r="G119" s="15">
         <v>1647199</v>
       </c>
-      <c r="H119" s="16" t="n">
+      <c r="H119" s="15">
         <v>1565347</v>
       </c>
-      <c r="I119" s="16" t="n">
+      <c r="I119" s="15">
         <v>1843260</v>
       </c>
-      <c r="J119" s="16" t="n">
+      <c r="J119" s="15">
         <v>1892239</v>
       </c>
-      <c r="K119" s="16" t="n">
+      <c r="K119" s="15">
         <v>2053320</v>
       </c>
-      <c r="L119" s="16" t="n">
+      <c r="L119" s="15">
         <v>1959578</v>
       </c>
-      <c r="M119" s="16" t="n">
+      <c r="M119" s="15">
         <v>1704988</v>
       </c>
-      <c r="N119" s="16" t="n">
+      <c r="N119" s="15">
         <v>1604014</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -5150,7 +4372,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -5165,7 +4387,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -5180,44 +4402,44 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="6" t="s">
+    <row r="123" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B123" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="8" t="s">
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G123" s="8" t="s">
+      <c r="G123" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H123" s="8" t="s">
+      <c r="H123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I123" s="8" t="s">
+      <c r="I123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J123" s="8" t="s">
+      <c r="J123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="K123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L123" s="8" t="s">
+      <c r="L123" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M123" s="8" t="s">
+      <c r="M123" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="8" t="s">
+      <c r="N123" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -5232,241 +4454,241 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="9" t="s">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10" t="n">
+      <c r="D125" s="9"/>
+      <c r="E125" s="9">
         <v>221428</v>
       </c>
-      <c r="F125" s="10" t="n">
+      <c r="F125" s="9">
         <v>1158883</v>
       </c>
-      <c r="G125" s="10" t="n">
+      <c r="G125" s="9">
         <v>7653079</v>
       </c>
-      <c r="H125" s="10" t="n">
+      <c r="H125" s="9">
         <v>4477350</v>
       </c>
-      <c r="I125" s="10" t="n">
+      <c r="I125" s="9">
         <v>3584214</v>
       </c>
-      <c r="J125" s="10" t="n">
+      <c r="J125" s="9">
         <v>4435331</v>
       </c>
-      <c r="K125" s="10" t="n">
+      <c r="K125" s="9">
         <v>3374465</v>
       </c>
-      <c r="L125" s="10" t="n">
+      <c r="L125" s="9">
         <v>8970144</v>
       </c>
-      <c r="M125" s="10" t="n">
+      <c r="M125" s="9">
         <v>57187</v>
       </c>
-      <c r="N125" s="10" t="n">
+      <c r="N125" s="9">
         <v>3564742</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="11" t="s">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12" t="n">
+      <c r="D126" s="11"/>
+      <c r="E126" s="11">
         <v>388550</v>
       </c>
-      <c r="F126" s="12" t="n">
+      <c r="F126" s="11">
         <v>1549906</v>
       </c>
-      <c r="G126" s="12" t="n">
+      <c r="G126" s="11">
         <v>1005496</v>
       </c>
-      <c r="H126" s="12" t="n">
+      <c r="H126" s="11">
         <v>580259</v>
       </c>
-      <c r="I126" s="12" t="n">
+      <c r="I126" s="11">
         <v>509291</v>
       </c>
-      <c r="J126" s="12" t="n">
+      <c r="J126" s="11">
         <v>3325012</v>
       </c>
-      <c r="K126" s="12" t="n">
+      <c r="K126" s="11">
         <v>4832568</v>
       </c>
-      <c r="L126" s="12" t="n">
+      <c r="L126" s="11">
         <v>455126</v>
       </c>
-      <c r="M126" s="12" t="n">
+      <c r="M126" s="11">
         <v>44959</v>
       </c>
-      <c r="N126" s="12" t="n">
+      <c r="N126" s="11">
         <v>1844719</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="9" t="s">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10" t="n">
+      <c r="D127" s="9"/>
+      <c r="E127" s="9">
         <v>1812625</v>
       </c>
-      <c r="F127" s="10" t="n">
+      <c r="F127" s="9">
         <v>1917998</v>
       </c>
-      <c r="G127" s="10" t="n">
+      <c r="G127" s="9">
         <v>914360</v>
       </c>
-      <c r="H127" s="10" t="n">
+      <c r="H127" s="9">
         <v>833893</v>
       </c>
-      <c r="I127" s="10" t="n">
+      <c r="I127" s="9">
         <v>3249101</v>
       </c>
-      <c r="J127" s="10" t="n">
+      <c r="J127" s="9">
         <v>579198</v>
       </c>
-      <c r="K127" s="10" t="n">
+      <c r="K127" s="9">
         <v>1210843</v>
       </c>
-      <c r="L127" s="10" t="n">
+      <c r="L127" s="9">
         <v>1068583</v>
       </c>
-      <c r="M127" s="10" t="n">
+      <c r="M127" s="9">
         <v>285574</v>
       </c>
-      <c r="N127" s="10" t="n">
+      <c r="N127" s="9">
         <v>1237232</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="11" t="s">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12" t="n">
+      <c r="D128" s="11"/>
+      <c r="E128" s="11">
         <v>2359</v>
       </c>
-      <c r="F128" s="12" t="n">
+      <c r="F128" s="11">
         <v>7159</v>
       </c>
-      <c r="G128" s="12" t="n">
+      <c r="G128" s="11">
         <v>8692</v>
       </c>
-      <c r="H128" s="12" t="n">
+      <c r="H128" s="11">
         <v>8384</v>
       </c>
-      <c r="I128" s="12" t="n">
+      <c r="I128" s="11">
         <v>21486</v>
       </c>
-      <c r="J128" s="12" t="n">
+      <c r="J128" s="11">
         <v>7699</v>
       </c>
-      <c r="K128" s="12" t="n">
+      <c r="K128" s="11">
         <v>17252</v>
       </c>
-      <c r="L128" s="12" t="n">
+      <c r="L128" s="11">
         <v>10860</v>
       </c>
-      <c r="M128" s="12" t="n">
+      <c r="M128" s="11">
         <v>91192</v>
       </c>
-      <c r="N128" s="12" t="n">
+      <c r="N128" s="11">
         <v>661</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="9" t="s">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10" t="n">
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
         <v>49692</v>
       </c>
-      <c r="F129" s="10" t="n">
+      <c r="F129" s="9">
         <v>1981143</v>
       </c>
-      <c r="G129" s="10" t="n">
+      <c r="G129" s="9">
         <v>11041063</v>
       </c>
-      <c r="H129" s="10" t="n">
+      <c r="H129" s="9">
         <v>20765046</v>
       </c>
-      <c r="I129" s="10" t="n">
+      <c r="I129" s="9">
         <v>9627377</v>
       </c>
-      <c r="J129" s="10" t="n">
+      <c r="J129" s="9">
         <v>23971959</v>
       </c>
-      <c r="K129" s="10" t="n">
+      <c r="K129" s="9">
         <v>10621361</v>
       </c>
-      <c r="L129" s="10" t="n">
+      <c r="L129" s="9">
         <v>29301550</v>
       </c>
-      <c r="M129" s="10" t="n">
+      <c r="M129" s="9">
         <v>7028</v>
       </c>
-      <c r="N129" s="10" t="n">
+      <c r="N129" s="9">
         <v>4387204</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="11" t="s">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12" t="n">
+      <c r="D130" s="11"/>
+      <c r="E130" s="11">
         <v>1909</v>
       </c>
-      <c r="F130" s="12" t="n">
+      <c r="F130" s="11">
         <v>12475</v>
       </c>
-      <c r="G130" s="12" t="n">
+      <c r="G130" s="11">
         <v>5435</v>
       </c>
-      <c r="H130" s="12" t="n">
+      <c r="H130" s="11">
         <v>13280</v>
       </c>
-      <c r="I130" s="12" t="n">
+      <c r="I130" s="11">
         <v>34634</v>
       </c>
-      <c r="J130" s="12" t="n">
+      <c r="J130" s="11">
         <v>81585</v>
       </c>
-      <c r="K130" s="12" t="n">
+      <c r="K130" s="11">
         <v>72915</v>
       </c>
-      <c r="L130" s="12" t="n">
+      <c r="L130" s="11">
         <v>20210</v>
       </c>
-      <c r="M130" s="12" t="n">
+      <c r="M130" s="11">
         <v>89334</v>
       </c>
-      <c r="N130" s="12" t="n">
+      <c r="N130" s="11">
         <v>3286</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5481,7 +4703,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5496,7 +4718,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5511,44 +4733,44 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="6" t="s">
+    <row r="134" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B134" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="8" t="s">
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G134" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H134" s="8" t="s">
+      <c r="H134" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I134" s="8" t="s">
+      <c r="I134" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J134" s="8" t="s">
+      <c r="J134" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K134" s="8" t="s">
+      <c r="K134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L134" s="8" t="s">
+      <c r="L134" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M134" s="8" t="s">
+      <c r="M134" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N134" s="8" t="s">
+      <c r="N134" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -5563,241 +4785,241 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="9" t="s">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10" t="n">
+      <c r="D136" s="9"/>
+      <c r="E136" s="9">
         <v>-25801</v>
       </c>
-      <c r="F136" s="10" t="n">
+      <c r="F136" s="9">
         <v>-778804</v>
       </c>
-      <c r="G136" s="10" t="n">
+      <c r="G136" s="9">
         <v>20975823</v>
       </c>
-      <c r="H136" s="10" t="n">
+      <c r="H136" s="9">
         <v>944286</v>
       </c>
-      <c r="I136" s="10" t="n">
+      <c r="I136" s="9">
         <v>-13814493</v>
       </c>
-      <c r="J136" s="10" t="n">
+      <c r="J136" s="9">
         <v>5184239</v>
       </c>
-      <c r="K136" s="10" t="n">
+      <c r="K136" s="9">
         <v>4999347</v>
       </c>
-      <c r="L136" s="10" t="n">
+      <c r="L136" s="9">
         <v>24926</v>
       </c>
-      <c r="M136" s="10" t="n">
+      <c r="M136" s="9">
         <v>-35751</v>
       </c>
-      <c r="N136" s="10" t="n">
+      <c r="N136" s="9">
         <v>38702425</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="11" t="s">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12" t="n">
+      <c r="D137" s="11"/>
+      <c r="E137" s="11">
         <v>-100158</v>
       </c>
-      <c r="F137" s="12" t="n">
+      <c r="F137" s="11">
         <v>-2014679</v>
       </c>
-      <c r="G137" s="12" t="n">
+      <c r="G137" s="11">
         <v>721895</v>
       </c>
-      <c r="H137" s="12" t="n">
+      <c r="H137" s="11">
         <v>273587</v>
       </c>
-      <c r="I137" s="12" t="n">
+      <c r="I137" s="11">
         <v>-1636590</v>
       </c>
-      <c r="J137" s="12" t="n">
+      <c r="J137" s="11">
         <v>-45742888</v>
       </c>
-      <c r="K137" s="12" t="n">
+      <c r="K137" s="11">
         <v>1755830</v>
       </c>
-      <c r="L137" s="12" t="n">
+      <c r="L137" s="11">
         <v>29216</v>
       </c>
-      <c r="M137" s="12" t="n">
+      <c r="M137" s="11">
         <v>7386</v>
       </c>
-      <c r="N137" s="12" t="n">
+      <c r="N137" s="11">
         <v>1121301370</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="9" t="s">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10" t="n">
+      <c r="D138" s="9"/>
+      <c r="E138" s="9">
         <v>-1619167</v>
       </c>
-      <c r="F138" s="10" t="n">
+      <c r="F138" s="9">
         <v>-5024018</v>
       </c>
-      <c r="G138" s="10" t="n">
+      <c r="G138" s="9">
         <v>2170268</v>
       </c>
-      <c r="H138" s="10" t="n">
+      <c r="H138" s="9">
         <v>174861</v>
       </c>
-      <c r="I138" s="10" t="n">
+      <c r="I138" s="9">
         <v>-428663</v>
       </c>
-      <c r="J138" s="10" t="n">
+      <c r="J138" s="9">
         <v>3626511</v>
       </c>
-      <c r="K138" s="10" t="n">
+      <c r="K138" s="9">
         <v>440812</v>
       </c>
-      <c r="L138" s="10" t="n">
+      <c r="L138" s="9">
         <v>43823</v>
       </c>
-      <c r="M138" s="10" t="n">
+      <c r="M138" s="9">
         <v>-159314</v>
       </c>
-      <c r="N138" s="10" t="n">
+      <c r="N138" s="9">
         <v>6401004</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="11" t="s">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B139" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12" t="n">
+      <c r="D139" s="11"/>
+      <c r="E139" s="11">
         <v>-2587</v>
       </c>
-      <c r="F139" s="12" t="n">
+      <c r="F139" s="11">
         <v>23994</v>
       </c>
-      <c r="G139" s="12" t="n">
+      <c r="G139" s="11">
         <v>-8690</v>
       </c>
-      <c r="H139" s="12" t="n">
+      <c r="H139" s="11">
         <v>5805</v>
       </c>
-      <c r="I139" s="12" t="n">
+      <c r="I139" s="11">
         <v>-3246</v>
       </c>
-      <c r="J139" s="12" t="n">
+      <c r="J139" s="11">
         <v>1220800</v>
       </c>
-      <c r="K139" s="12" t="n">
+      <c r="K139" s="11">
         <v>2069141</v>
       </c>
-      <c r="L139" s="12" t="n">
+      <c r="L139" s="11">
         <v>2200</v>
       </c>
-      <c r="M139" s="12" t="n">
+      <c r="M139" s="11">
         <v>-198116</v>
       </c>
-      <c r="N139" s="12" t="n">
+      <c r="N139" s="11">
         <v>-3270049</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="9" t="s">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B140" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10" t="n">
+      <c r="D140" s="9"/>
+      <c r="E140" s="9">
         <v>-347166</v>
       </c>
-      <c r="F140" s="10" t="n">
+      <c r="F140" s="9">
         <v>-463660</v>
       </c>
-      <c r="G140" s="10" t="n">
+      <c r="G140" s="9">
         <v>10821226</v>
       </c>
-      <c r="H140" s="10" t="n">
+      <c r="H140" s="9">
         <v>2560671</v>
       </c>
-      <c r="I140" s="10" t="n">
+      <c r="I140" s="9">
         <v>-236705700</v>
       </c>
-      <c r="J140" s="10" t="n">
+      <c r="J140" s="9">
         <v>13388295</v>
       </c>
-      <c r="K140" s="10" t="n">
+      <c r="K140" s="9">
         <v>22450353</v>
       </c>
-      <c r="L140" s="10" t="n">
+      <c r="L140" s="9">
         <v>2257</v>
       </c>
-      <c r="M140" s="10" t="n">
+      <c r="M140" s="9">
         <v>-1212</v>
       </c>
-      <c r="N140" s="10" t="n">
+      <c r="N140" s="9">
         <v>-54980097</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="11" t="s">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B141" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12" t="n">
+      <c r="D141" s="11"/>
+      <c r="E141" s="11">
         <v>-3674</v>
       </c>
-      <c r="F141" s="12" t="n">
+      <c r="F141" s="11">
         <v>14797</v>
       </c>
-      <c r="G141" s="12" t="n">
+      <c r="G141" s="11">
         <v>328</v>
       </c>
-      <c r="H141" s="12" t="n">
+      <c r="H141" s="11">
         <v>86060</v>
       </c>
-      <c r="I141" s="12" t="n">
+      <c r="I141" s="11">
         <v>-96276</v>
       </c>
-      <c r="J141" s="12" t="n">
+      <c r="J141" s="11">
         <v>2573844</v>
       </c>
-      <c r="K141" s="12" t="n">
+      <c r="K141" s="11">
         <v>486705</v>
       </c>
-      <c r="L141" s="12" t="n">
+      <c r="L141" s="11">
         <v>118382</v>
       </c>
-      <c r="M141" s="12" t="n">
+      <c r="M141" s="11">
         <v>-333778</v>
       </c>
-      <c r="N141" s="12" t="n">
+      <c r="N141" s="11">
         <v>1765971</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5812,7 +5034,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5827,7 +5049,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5842,44 +5064,44 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="6" t="s">
+    <row r="145" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B145" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="8" t="s">
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G145" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H145" s="8" t="s">
+      <c r="H145" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I145" s="8" t="s">
+      <c r="I145" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J145" s="8" t="s">
+      <c r="J145" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K145" s="8" t="s">
+      <c r="K145" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L145" s="8" t="s">
+      <c r="L145" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M145" s="8" t="s">
+      <c r="M145" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N145" s="8" t="s">
+      <c r="N145" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5894,241 +5116,241 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="9" t="s">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B147" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10" t="n">
+      <c r="D147" s="9"/>
+      <c r="E147" s="9">
         <v>-31157</v>
       </c>
-      <c r="F147" s="10" t="n">
+      <c r="F147" s="9">
         <v>704422</v>
       </c>
-      <c r="G147" s="10" t="n">
+      <c r="G147" s="9">
         <v>95976944</v>
       </c>
-      <c r="H147" s="10" t="n">
+      <c r="H147" s="9">
         <v>1132980</v>
       </c>
-      <c r="I147" s="10" t="n">
+      <c r="I147" s="9">
         <v>-19521972</v>
       </c>
-      <c r="J147" s="10" t="n">
+      <c r="J147" s="9">
         <v>13065913</v>
       </c>
-      <c r="K147" s="10" t="n">
+      <c r="K147" s="9">
         <v>2952306</v>
       </c>
-      <c r="L147" s="10" t="n">
+      <c r="L147" s="9">
         <v>40245</v>
       </c>
-      <c r="M147" s="10" t="n">
+      <c r="M147" s="9">
         <v>-56202</v>
       </c>
-      <c r="N147" s="10" t="n">
+      <c r="N147" s="9">
         <v>8274111</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="11" t="s">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B148" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12" t="n">
+      <c r="D148" s="11"/>
+      <c r="E148" s="11">
         <v>-115136</v>
       </c>
-      <c r="F148" s="12" t="n">
+      <c r="F148" s="11">
         <v>-4322679</v>
       </c>
-      <c r="G148" s="12" t="n">
+      <c r="G148" s="11">
         <v>-29022925</v>
       </c>
-      <c r="H148" s="12" t="n">
+      <c r="H148" s="11">
         <v>330411</v>
       </c>
-      <c r="I148" s="12" t="n">
+      <c r="I148" s="11">
         <v>-1607920</v>
       </c>
-      <c r="J148" s="12" t="n">
+      <c r="J148" s="11">
         <v>-1757602</v>
       </c>
-      <c r="K148" s="12" t="n">
+      <c r="K148" s="11">
         <v>3477813</v>
       </c>
-      <c r="L148" s="12" t="n">
+      <c r="L148" s="11">
         <v>41274</v>
       </c>
-      <c r="M148" s="12" t="n">
+      <c r="M148" s="11">
         <v>-12624</v>
       </c>
-      <c r="N148" s="12" t="n">
+      <c r="N148" s="11">
         <v>19460414</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="9" t="s">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B149" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10" t="n">
+      <c r="D149" s="9"/>
+      <c r="E149" s="9">
         <v>-2305860</v>
       </c>
-      <c r="F149" s="10" t="n">
+      <c r="F149" s="9">
         <v>-3151809</v>
       </c>
-      <c r="G149" s="10" t="n">
+      <c r="G149" s="9">
         <v>-2951790</v>
       </c>
-      <c r="H149" s="10" t="n">
+      <c r="H149" s="9">
         <v>85997</v>
       </c>
-      <c r="I149" s="10" t="n">
+      <c r="I149" s="9">
         <v>-384469</v>
       </c>
-      <c r="J149" s="10" t="n">
+      <c r="J149" s="9">
         <v>1780269</v>
       </c>
-      <c r="K149" s="10" t="n">
+      <c r="K149" s="9">
         <v>702642</v>
       </c>
-      <c r="L149" s="10" t="n">
+      <c r="L149" s="9">
         <v>71432</v>
       </c>
-      <c r="M149" s="10" t="n">
+      <c r="M149" s="9">
         <v>-293893</v>
       </c>
-      <c r="N149" s="10" t="n">
+      <c r="N149" s="9">
         <v>2798780</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="11" t="s">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B150" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12" t="n">
+      <c r="D150" s="11"/>
+      <c r="E150" s="11">
         <v>47</v>
       </c>
-      <c r="F150" s="12" t="n">
+      <c r="F150" s="11">
         <v>21973</v>
       </c>
-      <c r="G150" s="12" t="n">
+      <c r="G150" s="11">
         <v>-8507</v>
       </c>
-      <c r="H150" s="12" t="n">
+      <c r="H150" s="11">
         <v>1614</v>
       </c>
-      <c r="I150" s="12" t="n">
+      <c r="I150" s="11">
         <v>-3674</v>
       </c>
-      <c r="J150" s="12" t="n">
+      <c r="J150" s="11">
         <v>7165</v>
       </c>
-      <c r="K150" s="12" t="n">
+      <c r="K150" s="11">
         <v>4121</v>
       </c>
-      <c r="L150" s="12" t="n">
+      <c r="L150" s="11">
         <v>3949</v>
       </c>
-      <c r="M150" s="12" t="n">
+      <c r="M150" s="11">
         <v>-654</v>
       </c>
-      <c r="N150" s="12" t="n">
+      <c r="N150" s="11">
         <v>1047261</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="9" t="s">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B151" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10" t="n">
+      <c r="D151" s="9"/>
+      <c r="E151" s="9">
         <v>-175987</v>
       </c>
-      <c r="F151" s="10" t="n">
+      <c r="F151" s="9">
         <v>-387962</v>
       </c>
-      <c r="G151" s="10" t="n">
+      <c r="G151" s="9">
         <v>5247163</v>
       </c>
-      <c r="H151" s="10" t="n">
+      <c r="H151" s="9">
         <v>5735546</v>
       </c>
-      <c r="I151" s="10" t="n">
+      <c r="I151" s="9">
         <v>582725146</v>
       </c>
-      <c r="J151" s="10" t="n">
+      <c r="J151" s="9">
         <v>414003091</v>
       </c>
-      <c r="K151" s="10" t="n">
+      <c r="K151" s="9">
         <v>-2867322</v>
       </c>
-      <c r="L151" s="10" t="n">
+      <c r="L151" s="9">
         <v>11438</v>
       </c>
-      <c r="M151" s="10" t="n">
+      <c r="M151" s="9">
         <v>-7922</v>
       </c>
-      <c r="N151" s="10" t="n">
+      <c r="N151" s="9">
         <v>41880060</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="11" t="s">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B152" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12" t="n">
+      <c r="D152" s="11"/>
+      <c r="E152" s="11">
         <v>30411</v>
       </c>
-      <c r="F152" s="12" t="n">
+      <c r="F152" s="11">
         <v>-20810</v>
       </c>
-      <c r="G152" s="12" t="n">
+      <c r="G152" s="11">
         <v>-1991</v>
       </c>
-      <c r="H152" s="12" t="n">
+      <c r="H152" s="11">
         <v>11602</v>
       </c>
-      <c r="I152" s="12" t="n">
+      <c r="I152" s="11">
         <v>42049</v>
       </c>
-      <c r="J152" s="12" t="n">
+      <c r="J152" s="11">
         <v>9409</v>
       </c>
-      <c r="K152" s="12" t="n">
+      <c r="K152" s="11">
         <v>-49001</v>
       </c>
-      <c r="L152" s="12" t="n">
+      <c r="L152" s="11">
         <v>10306</v>
       </c>
-      <c r="M152" s="12" t="n">
+      <c r="M152" s="11">
         <v>-25499</v>
       </c>
-      <c r="N152" s="12" t="n">
+      <c r="N152" s="11">
         <v>492768</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -6143,7 +5365,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -6158,7 +5380,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -6173,44 +5395,44 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="6" t="s">
+    <row r="156" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B156" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="8" t="s">
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G156" s="8" t="s">
+      <c r="G156" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H156" s="8" t="s">
+      <c r="H156" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I156" s="8" t="s">
+      <c r="I156" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J156" s="8" t="s">
+      <c r="J156" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K156" s="8" t="s">
+      <c r="K156" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L156" s="8" t="s">
+      <c r="L156" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M156" s="8" t="s">
+      <c r="M156" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N156" s="8" t="s">
+      <c r="N156" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -6225,241 +5447,241 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="9" t="s">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B158" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10" t="s">
+      <c r="D158" s="9"/>
+      <c r="E158" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F158" s="10" t="s">
+      <c r="F158" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G158" s="10" t="s">
+      <c r="G158" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H158" s="10" t="s">
+      <c r="H158" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I158" s="10" t="n">
+      <c r="I158" s="9">
         <v>4435331</v>
       </c>
-      <c r="J158" s="10" t="n">
+      <c r="J158" s="9">
         <v>3374465</v>
       </c>
-      <c r="K158" s="10" t="n">
+      <c r="K158" s="9">
         <v>8970144</v>
       </c>
-      <c r="L158" s="10" t="n">
+      <c r="L158" s="9">
         <v>57187</v>
       </c>
-      <c r="M158" s="10" t="n">
+      <c r="M158" s="9">
         <v>3564742</v>
       </c>
-      <c r="N158" s="10" t="n">
+      <c r="N158" s="9">
         <v>5652193</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="11" t="s">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B159" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12" t="s">
+      <c r="D159" s="11"/>
+      <c r="E159" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F159" s="12" t="s">
+      <c r="F159" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G159" s="12" t="s">
+      <c r="G159" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H159" s="12" t="s">
+      <c r="H159" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I159" s="12" t="n">
+      <c r="I159" s="11">
         <v>3325012</v>
       </c>
-      <c r="J159" s="12" t="n">
+      <c r="J159" s="11">
         <v>4832568</v>
       </c>
-      <c r="K159" s="12" t="n">
+      <c r="K159" s="11">
         <v>455126</v>
       </c>
-      <c r="L159" s="12" t="n">
+      <c r="L159" s="11">
         <v>44959</v>
       </c>
-      <c r="M159" s="12" t="n">
+      <c r="M159" s="11">
         <v>1844719</v>
       </c>
-      <c r="N159" s="12" t="n">
+      <c r="N159" s="11">
         <v>1866873</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="9" t="s">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B160" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10" t="s">
+      <c r="D160" s="9"/>
+      <c r="E160" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F160" s="10" t="s">
+      <c r="F160" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G160" s="10" t="s">
+      <c r="G160" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H160" s="10" t="s">
+      <c r="H160" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I160" s="10" t="n">
+      <c r="I160" s="9">
         <v>579198</v>
       </c>
-      <c r="J160" s="10" t="n">
+      <c r="J160" s="9">
         <v>1210843</v>
       </c>
-      <c r="K160" s="10" t="n">
+      <c r="K160" s="9">
         <v>1068643</v>
       </c>
-      <c r="L160" s="10" t="n">
+      <c r="L160" s="9">
         <v>285574</v>
       </c>
-      <c r="M160" s="10" t="n">
+      <c r="M160" s="9">
         <v>1237232</v>
       </c>
-      <c r="N160" s="10" t="n">
+      <c r="N160" s="9">
         <v>1584376</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="11" t="s">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B161" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12" t="s">
+      <c r="D161" s="11"/>
+      <c r="E161" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F161" s="12" t="s">
+      <c r="F161" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G161" s="12" t="s">
+      <c r="G161" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H161" s="12" t="s">
+      <c r="H161" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I161" s="12" t="n">
+      <c r="I161" s="11">
         <v>7699</v>
       </c>
-      <c r="J161" s="12" t="n">
+      <c r="J161" s="11">
         <v>17252</v>
       </c>
-      <c r="K161" s="12" t="n">
+      <c r="K161" s="11">
         <v>10860</v>
       </c>
-      <c r="L161" s="12" t="n">
+      <c r="L161" s="11">
         <v>91192</v>
       </c>
-      <c r="M161" s="12" t="n">
+      <c r="M161" s="11">
         <v>661</v>
       </c>
-      <c r="N161" s="12" t="n">
+      <c r="N161" s="11">
         <v>485</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="9" t="s">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B162" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10" t="s">
+      <c r="D162" s="9"/>
+      <c r="E162" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F162" s="10" t="s">
+      <c r="F162" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G162" s="10" t="s">
+      <c r="G162" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H162" s="10" t="s">
+      <c r="H162" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I162" s="10" t="n">
+      <c r="I162" s="9">
         <v>23971959</v>
       </c>
-      <c r="J162" s="10" t="n">
+      <c r="J162" s="9">
         <v>10621361</v>
       </c>
-      <c r="K162" s="10" t="n">
+      <c r="K162" s="9">
         <v>29301550</v>
       </c>
-      <c r="L162" s="10" t="n">
+      <c r="L162" s="9">
         <v>7028</v>
       </c>
-      <c r="M162" s="10" t="n">
+      <c r="M162" s="9">
         <v>4387204</v>
       </c>
-      <c r="N162" s="10" t="n">
+      <c r="N162" s="9">
         <v>4285152</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="11" t="s">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B163" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12" t="s">
+      <c r="D163" s="11"/>
+      <c r="E163" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F163" s="12" t="s">
+      <c r="F163" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G163" s="12" t="s">
+      <c r="G163" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H163" s="12" t="s">
+      <c r="H163" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I163" s="12" t="n">
+      <c r="I163" s="11">
         <v>81585</v>
       </c>
-      <c r="J163" s="12" t="n">
+      <c r="J163" s="11">
         <v>72915</v>
       </c>
-      <c r="K163" s="12" t="n">
+      <c r="K163" s="11">
         <v>20210</v>
       </c>
-      <c r="L163" s="12" t="n">
+      <c r="L163" s="11">
         <v>89334</v>
       </c>
-      <c r="M163" s="12" t="n">
+      <c r="M163" s="11">
         <v>3286</v>
       </c>
-      <c r="N163" s="12" t="n">
+      <c r="N163" s="11">
         <v>3947</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -6474,7 +5696,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -6489,7 +5711,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -6504,44 +5726,44 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="6" t="s">
+    <row r="167" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B167" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="8" t="s">
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G167" s="8" t="s">
+      <c r="G167" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H167" s="8" t="s">
+      <c r="H167" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I167" s="8" t="s">
+      <c r="I167" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J167" s="8" t="s">
+      <c r="J167" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K167" s="8" t="s">
+      <c r="K167" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L167" s="8" t="s">
+      <c r="L167" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M167" s="8" t="s">
+      <c r="M167" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N167" s="8" t="s">
+      <c r="N167" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -6556,414 +5778,414 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="9" t="s">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B169" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H169" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M169" s="10" t="n">
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9">
+        <v>0</v>
+      </c>
+      <c r="F169" s="9">
+        <v>0</v>
+      </c>
+      <c r="G169" s="9">
+        <v>0</v>
+      </c>
+      <c r="H169" s="9">
+        <v>0</v>
+      </c>
+      <c r="I169" s="9">
+        <v>0</v>
+      </c>
+      <c r="J169" s="9">
+        <v>0</v>
+      </c>
+      <c r="K169" s="9">
+        <v>0</v>
+      </c>
+      <c r="L169" s="9">
+        <v>0</v>
+      </c>
+      <c r="M169" s="9">
         <v>335834</v>
       </c>
-      <c r="N169" s="10" t="n">
+      <c r="N169" s="9">
         <v>-335834</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="11" t="s">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B170" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N170" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="9" t="s">
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11">
+        <v>0</v>
+      </c>
+      <c r="F170" s="11">
+        <v>0</v>
+      </c>
+      <c r="G170" s="11">
+        <v>0</v>
+      </c>
+      <c r="H170" s="11">
+        <v>0</v>
+      </c>
+      <c r="I170" s="11">
+        <v>0</v>
+      </c>
+      <c r="J170" s="11">
+        <v>0</v>
+      </c>
+      <c r="K170" s="11">
+        <v>0</v>
+      </c>
+      <c r="L170" s="11">
+        <v>0</v>
+      </c>
+      <c r="M170" s="11">
+        <v>0</v>
+      </c>
+      <c r="N170" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B171" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K171" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M171" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N171" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="11" t="s">
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9">
+        <v>0</v>
+      </c>
+      <c r="F171" s="9">
+        <v>0</v>
+      </c>
+      <c r="G171" s="9">
+        <v>0</v>
+      </c>
+      <c r="H171" s="9">
+        <v>0</v>
+      </c>
+      <c r="I171" s="9">
+        <v>0</v>
+      </c>
+      <c r="J171" s="9">
+        <v>0</v>
+      </c>
+      <c r="K171" s="9">
+        <v>0</v>
+      </c>
+      <c r="L171" s="9">
+        <v>0</v>
+      </c>
+      <c r="M171" s="9">
+        <v>0</v>
+      </c>
+      <c r="N171" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B172" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K172" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L172" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M172" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N172" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="9" t="s">
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11">
+        <v>0</v>
+      </c>
+      <c r="F172" s="11">
+        <v>0</v>
+      </c>
+      <c r="G172" s="11">
+        <v>0</v>
+      </c>
+      <c r="H172" s="11">
+        <v>0</v>
+      </c>
+      <c r="I172" s="11">
+        <v>0</v>
+      </c>
+      <c r="J172" s="11">
+        <v>0</v>
+      </c>
+      <c r="K172" s="11">
+        <v>0</v>
+      </c>
+      <c r="L172" s="11">
+        <v>0</v>
+      </c>
+      <c r="M172" s="11">
+        <v>0</v>
+      </c>
+      <c r="N172" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B173" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10" t="n">
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9">
         <v>11837</v>
       </c>
-      <c r="F173" s="10" t="n">
+      <c r="F173" s="9">
         <v>6005</v>
       </c>
-      <c r="G173" s="10" t="n">
+      <c r="G173" s="9">
         <v>-17942</v>
       </c>
-      <c r="H173" s="10" t="n">
+      <c r="H173" s="9">
         <v>1308</v>
       </c>
-      <c r="I173" s="10" t="n">
+      <c r="I173" s="9">
         <v>11178</v>
       </c>
-      <c r="J173" s="10" t="n">
+      <c r="J173" s="9">
         <v>-5439</v>
       </c>
-      <c r="K173" s="10" t="n">
+      <c r="K173" s="9">
         <v>14715</v>
       </c>
-      <c r="L173" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M173" s="10" t="n">
+      <c r="L173" s="9">
+        <v>0</v>
+      </c>
+      <c r="M173" s="9">
         <v>16253</v>
       </c>
-      <c r="N173" s="10" t="n">
+      <c r="N173" s="9">
         <v>-1734</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="11" t="s">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B174" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12" t="n">
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11">
         <v>3251</v>
       </c>
-      <c r="F174" s="12" t="n">
+      <c r="F174" s="11">
         <v>7655</v>
       </c>
-      <c r="G174" s="12" t="n">
+      <c r="G174" s="11">
         <v>155</v>
       </c>
-      <c r="H174" s="12" t="n">
+      <c r="H174" s="11">
         <v>3470</v>
       </c>
-      <c r="I174" s="12" t="n">
+      <c r="I174" s="11">
         <v>4417</v>
       </c>
-      <c r="J174" s="12" t="n">
+      <c r="J174" s="11">
         <v>6731</v>
       </c>
-      <c r="K174" s="12" t="n">
+      <c r="K174" s="11">
         <v>3729</v>
       </c>
-      <c r="L174" s="12" t="n">
+      <c r="L174" s="11">
         <v>2541</v>
       </c>
-      <c r="M174" s="12" t="n">
+      <c r="M174" s="11">
         <v>63515</v>
       </c>
-      <c r="N174" s="12" t="n">
+      <c r="N174" s="11">
         <v>-50478</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="9" t="s">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B175" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10" t="n">
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9">
         <v>12374</v>
       </c>
-      <c r="F175" s="10" t="n">
+      <c r="F175" s="9">
         <v>6429</v>
       </c>
-      <c r="G175" s="10" t="n">
+      <c r="G175" s="9">
         <v>16186</v>
       </c>
-      <c r="H175" s="10" t="n">
+      <c r="H175" s="9">
         <v>10976</v>
       </c>
-      <c r="I175" s="10" t="n">
+      <c r="I175" s="9">
         <v>15188</v>
       </c>
-      <c r="J175" s="10" t="n">
+      <c r="J175" s="9">
         <v>13860</v>
       </c>
-      <c r="K175" s="10" t="n">
+      <c r="K175" s="9">
         <v>22958</v>
       </c>
-      <c r="L175" s="10" t="n">
+      <c r="L175" s="9">
         <v>15745</v>
       </c>
-      <c r="M175" s="10" t="n">
+      <c r="M175" s="9">
         <v>20278</v>
       </c>
-      <c r="N175" s="10" t="n">
+      <c r="N175" s="9">
         <v>17580</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="11" t="s">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B176" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12" t="n">
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11">
         <v>124777</v>
       </c>
-      <c r="F176" s="12" t="n">
+      <c r="F176" s="11">
         <v>60683</v>
       </c>
-      <c r="G176" s="12" t="n">
+      <c r="G176" s="11">
         <v>4300</v>
       </c>
-      <c r="H176" s="12" t="n">
+      <c r="H176" s="11">
         <v>135425</v>
       </c>
-      <c r="I176" s="12" t="n">
+      <c r="I176" s="11">
         <v>134536</v>
       </c>
-      <c r="J176" s="12" t="n">
+      <c r="J176" s="11">
         <v>115790</v>
       </c>
-      <c r="K176" s="12" t="n">
+      <c r="K176" s="11">
         <v>262571</v>
       </c>
-      <c r="L176" s="12" t="n">
+      <c r="L176" s="11">
         <v>82312</v>
       </c>
-      <c r="M176" s="12" t="n">
+      <c r="M176" s="11">
         <v>348984</v>
       </c>
-      <c r="N176" s="12" t="n">
+      <c r="N176" s="11">
         <v>174553</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="9" t="s">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B177" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L177" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M177" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N177" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="11" t="s">
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9">
+        <v>0</v>
+      </c>
+      <c r="F177" s="9">
+        <v>0</v>
+      </c>
+      <c r="G177" s="9">
+        <v>0</v>
+      </c>
+      <c r="H177" s="9">
+        <v>0</v>
+      </c>
+      <c r="I177" s="9">
+        <v>0</v>
+      </c>
+      <c r="J177" s="9">
+        <v>0</v>
+      </c>
+      <c r="K177" s="9">
+        <v>0</v>
+      </c>
+      <c r="L177" s="9">
+        <v>0</v>
+      </c>
+      <c r="M177" s="9">
+        <v>0</v>
+      </c>
+      <c r="N177" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B178" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12" t="n">
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11">
         <v>71483</v>
       </c>
-      <c r="F178" s="12" t="n">
+      <c r="F178" s="11">
         <v>218356</v>
       </c>
-      <c r="G178" s="12" t="n">
+      <c r="G178" s="11">
         <v>135439</v>
       </c>
-      <c r="H178" s="12" t="n">
+      <c r="H178" s="11">
         <v>74121</v>
       </c>
-      <c r="I178" s="12" t="n">
+      <c r="I178" s="11">
         <v>219735</v>
       </c>
-      <c r="J178" s="12" t="n">
+      <c r="J178" s="11">
         <v>165950</v>
       </c>
-      <c r="K178" s="12" t="n">
+      <c r="K178" s="11">
         <v>-33660</v>
       </c>
-      <c r="L178" s="12" t="n">
+      <c r="L178" s="11">
         <v>30535</v>
       </c>
-      <c r="M178" s="12" t="n">
+      <c r="M178" s="11">
         <v>-30535</v>
       </c>
-      <c r="N178" s="12" t="n">
+      <c r="N178" s="11">
         <v>643748</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="15" t="s">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B179" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16" t="n">
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15">
         <v>223722</v>
       </c>
-      <c r="F179" s="16" t="n">
+      <c r="F179" s="15">
         <v>299128</v>
       </c>
-      <c r="G179" s="16" t="n">
+      <c r="G179" s="15">
         <v>138138</v>
       </c>
-      <c r="H179" s="16" t="n">
+      <c r="H179" s="15">
         <v>225300</v>
       </c>
-      <c r="I179" s="16" t="n">
+      <c r="I179" s="15">
         <v>385054</v>
       </c>
-      <c r="J179" s="16" t="n">
+      <c r="J179" s="15">
         <v>296892</v>
       </c>
-      <c r="K179" s="16" t="n">
+      <c r="K179" s="15">
         <v>270313</v>
       </c>
-      <c r="L179" s="16" t="n">
+      <c r="L179" s="15">
         <v>131133</v>
       </c>
-      <c r="M179" s="16" t="n">
+      <c r="M179" s="15">
         <v>754329</v>
       </c>
-      <c r="N179" s="16" t="n">
+      <c r="N179" s="15">
         <v>447835</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6978,7 +6200,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -6993,7 +6215,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -7008,14 +6230,14 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="6" t="s">
+    <row r="183" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B183" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -7025,7 +6247,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -7040,16 +6262,16 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="9" t="s">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B185" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -7059,16 +6281,16 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="11" t="s">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B186" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -7078,134 +6300,128 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="9" t="s">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B187" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="11" t="s">
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B188" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="9" t="s">
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B189" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="11" t="s">
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B190" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="9" t="s">
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B191" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="11" t="s">
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B192" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="9" t="s">
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B193" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="11" t="s">
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B194" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="9" t="s">
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B195" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="11" t="s">
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B196" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="9" t="s">
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B197" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>